--- a/Execution Providers Tester/Intel - OpenVINO™/report_OpenVINOExecutionProvider.xlsx
+++ b/Execution Providers Tester/Intel - OpenVINO™/report_OpenVINOExecutionProvider.xlsx
@@ -4111,7 +4111,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-06-04 16:06:19</t>
+          <t>2025-06-05 09:43:16</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/Intel - OpenVINO™/report_OpenVINOExecutionProvider.xlsx
+++ b/Execution Providers Tester/Intel - OpenVINO™/report_OpenVINOExecutionProvider.xlsx
@@ -27,7 +27,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -36,32 +36,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFAA00"/>
-        <bgColor rgb="00FFAA00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00007700"/>
-        <bgColor rgb="00007700"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF7700"/>
-        <bgColor rgb="00FF7700"/>
+        <fgColor rgb="0000AA44"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00DEDEDE"/>
-        <bgColor rgb="00DEDEDE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004D7CFE"/>
       </patternFill>
     </fill>
   </fills>
@@ -74,31 +64,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -192,7 +173,6 @@
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
       <pieChart>
@@ -264,6 +244,28 @@
             <idx val="5"/>
             <spPr>
               <a:solidFill>
+                <a:srgbClr val="4D7CFE"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="6"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="7"/>
+            <spPr>
+              <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln>
@@ -273,12 +275,12 @@
           </dPt>
           <cat>
             <numRef>
-              <f>'Data_PieChart'!$A$2:$A$7</f>
+              <f>'Data_PieChart'!$A$2:$A$9</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Data_PieChart'!$B$2:$B$7</f>
+              <f>'Data_PieChart'!$B$2:$B$9</f>
             </numRef>
           </val>
         </ser>
@@ -613,7 +615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D153"/>
+  <dimension ref="A1:D266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +623,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="48" customWidth="1" min="1" max="1"/>
     <col width="27" customWidth="1" min="2" max="2"/>
     <col width="48" customWidth="1" min="3" max="3"/>
     <col width="80" customWidth="1" min="4" max="4"/>
@@ -674,7 +676,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Div</t>
+          <t>AffineGrid</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -684,19 +686,19 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Sub</t>
+          <t>And</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -709,7 +711,7 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>SUCCESS (via decomposition)</t>
         </is>
@@ -718,7 +720,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Mul</t>
+          <t>ArgMax</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -731,7 +733,7 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>SUCCESS (via decomposition)</t>
         </is>
@@ -740,7 +742,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Pow</t>
+          <t>ArgMin</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -753,7 +755,7 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>SUCCESS (via decomposition)</t>
         </is>
@@ -762,7 +764,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Mod</t>
+          <t>AveragePool</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -775,7 +777,7 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>SUCCESS (via decomposition)</t>
         </is>
@@ -784,7 +786,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>BitwiseAnd</t>
+          <t>BatchNormalization</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -794,19 +796,19 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>BitwiseOr</t>
+          <t>Bernoulli</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -821,14 +823,14 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>BitwiseXor</t>
+          <t>BitShift</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -850,7 +852,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>And</t>
+          <t>BitwiseAnd</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
@@ -860,19 +862,19 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Or</t>
+          <t>BitwiseNot</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -882,19 +884,19 @@
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Xor</t>
+          <t>BitwiseOr</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
@@ -904,19 +906,19 @@
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ReduceSum</t>
+          <t>BitwiseXor</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -926,19 +928,19 @@
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ReduceMean</t>
+          <t>BlackmanWindow</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
@@ -948,19 +950,19 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ReduceMax</t>
+          <t>Cast</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
@@ -970,19 +972,19 @@
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ReduceMin</t>
+          <t>CastLike</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -992,19 +994,19 @@
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ReduceProd</t>
+          <t>CenterCropPad</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -1012,21 +1014,22 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
+      <c r="C18" s="1" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t xml:space="preserve">FAIL run: [ONNXRuntimeError] : 1 : FAIL : Non-zero status code returned while running OpenVINO-EP-subgraph_7 node. Name:'OpenVINOExecutionProvider_OpenVINO-EP-subgraph_7_0' Status Message: C:\Users\Administrator\Documents\jatin\python_wheels_latest_122222222\onnxruntime\onnxruntime\core\providers\openvino\ov_interface.cc:300 void __cdecl onnxruntime::openvino_ep::OVInferRequest::WaitRequest(void) [OpenVINO-EP]  Wait Model Failed: Exception from src\inference\src\cpp\infer_request.cpp:245:
+Exception from src\plugins\intel_cpu\src\node.cpp:790:
+[CPU] Pad node with name '_inlfunc_CenterCropPad_padded_input' Check 'pads_begin_coord-&gt;size() == static_cast&lt;size_t&gt;(arg_rank_len)' failed at src\core\shape_inference\include\pad_shape_inference.hpp:62:
+While validating node 'opset1::Pad _inlfunc_CenterCropPad_padded_input (opset1::Parameter input_data[0]:f32[1,3,224,224], opset1::Split Split_25330[0]:i32[2], opset1::Split Split_25330[1]:i32[2], opset1::Constant Constant_25328[0]:f32[]) -&gt; (f32[?,?,?,?])' with friendly_name '_inlfunc_CenterCropPad_padded_input':
+length of pads_begin mismatches with rank of input, expect 4, but got 2
+</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ReduceL1</t>
+          <t>Clip</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -1039,7 +1042,7 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>SUCCESS (via decomposition)</t>
         </is>
@@ -1048,7 +1051,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ReduceL2</t>
+          <t>Col2Im</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -1058,19 +1061,19 @@
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ReduceLogSum</t>
+          <t>Compress</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
@@ -1083,7 +1086,7 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr">
         <is>
           <t>SUCCESS (via decomposition)</t>
         </is>
@@ -1092,7 +1095,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ReduceLogSumExp</t>
+          <t>Concat</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -1102,19 +1105,19 @@
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ReduceSumSquare</t>
+          <t>ConcatFromSequence</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
@@ -1124,19 +1127,19 @@
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Equal</t>
+          <t>Constant</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -1144,21 +1147,17 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+      <c r="C24" s="1" t="inlineStr"/>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>UNKNOWN (no Node event)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Not</t>
+          <t>ConstantOfShape</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
@@ -1180,7 +1179,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Greater</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -1193,7 +1192,7 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="D26" s="3" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>SUCCESS (via decomposition)</t>
         </is>
@@ -1202,7 +1201,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Less</t>
+          <t>ConvInteger</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
@@ -1212,19 +1211,19 @@
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>GreaterOrEqual</t>
+          <t>ConvTranspose</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
@@ -1237,7 +1236,7 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="D28" s="3" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>SUCCESS (via decomposition)</t>
         </is>
@@ -1246,7 +1245,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>LessOrEqual</t>
+          <t>CumSum</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
@@ -1259,7 +1258,7 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="D29" s="3" t="inlineStr">
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>SUCCESS (via decomposition)</t>
         </is>
@@ -1268,7 +1267,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Not</t>
+          <t>DFT</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
@@ -1290,7 +1289,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>IsNaN</t>
+          <t>DeformConv</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
@@ -1298,21 +1297,17 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="C31" s="1" t="inlineStr"/>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DeformConv(19) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>IsInf</t>
+          <t>DepthToSpace</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -1322,19 +1317,19 @@
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>DequantizeLinear</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
@@ -1344,19 +1339,19 @@
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Min</t>
+          <t>Det</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
@@ -1366,19 +1361,19 @@
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Mean</t>
+          <t>Div</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
@@ -1391,7 +1386,7 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="D35" s="3" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>SUCCESS (via decomposition)</t>
         </is>
@@ -1400,7 +1395,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Sum</t>
+          <t>Dropout</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
@@ -1410,19 +1405,19 @@
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D36" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ArgMin</t>
+          <t>DynamicQuantizeLinear</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
@@ -1432,19 +1427,19 @@
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D37" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ArgMax</t>
+          <t>Einsum</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
@@ -1454,19 +1449,19 @@
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D38" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Reshape</t>
+          <t>Equal</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
@@ -1476,12 +1471,12 @@
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1505,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Flatten</t>
+          <t>EyeLike</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
@@ -1520,19 +1515,19 @@
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D41" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Squeeze</t>
+          <t>Flatten</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -1545,7 +1540,7 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="D42" s="3" t="inlineStr">
+      <c r="D42" s="2" t="inlineStr">
         <is>
           <t>SUCCESS (via decomposition)</t>
         </is>
@@ -1554,7 +1549,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Unsqueeze</t>
+          <t>GRU</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
@@ -1564,19 +1559,19 @@
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Transpose</t>
+          <t>Gather</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
@@ -1589,7 +1584,7 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
+      <c r="D44" s="2" t="inlineStr">
         <is>
           <t>SUCCESS (via decomposition)</t>
         </is>
@@ -1598,7 +1593,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Concat</t>
+          <t>GatherElements</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
@@ -1620,7 +1615,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Split</t>
+          <t>GatherND</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
@@ -1642,7 +1637,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Slice</t>
+          <t>Gelu</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
@@ -1652,19 +1647,19 @@
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Pad</t>
+          <t>Gemm</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
@@ -1674,19 +1669,19 @@
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Tile</t>
+          <t>GlobalAveragePool</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr">
@@ -1696,19 +1691,19 @@
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Gather</t>
+          <t>GlobalMaxPool</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr">
@@ -1721,7 +1716,7 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="D50" s="3" t="inlineStr">
+      <c r="D50" s="2" t="inlineStr">
         <is>
           <t>SUCCESS (via decomposition)</t>
         </is>
@@ -1730,7 +1725,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>GatherND</t>
+          <t>Greater</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr">
@@ -1740,19 +1735,19 @@
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>GatherElements</t>
+          <t>GreaterOrEqual</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr">
@@ -1762,19 +1757,19 @@
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>ScatterElements</t>
+          <t>GridSample</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr">
@@ -1784,19 +1779,19 @@
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>ScatterND</t>
+          <t>GroupNormalization</t>
         </is>
       </c>
       <c r="B54" s="1" t="inlineStr">
@@ -1809,7 +1804,7 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="D54" s="3" t="inlineStr">
+      <c r="D54" s="2" t="inlineStr">
         <is>
           <t>SUCCESS (via decomposition)</t>
         </is>
@@ -1818,7 +1813,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Gemm</t>
+          <t>HammingWindow</t>
         </is>
       </c>
       <c r="B55" s="1" t="inlineStr">
@@ -1828,19 +1823,19 @@
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>MatMul</t>
+          <t>HannWindow</t>
         </is>
       </c>
       <c r="B56" s="1" t="inlineStr">
@@ -1850,19 +1845,19 @@
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D56" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>AveragePool</t>
+          <t>HardSigmoid</t>
         </is>
       </c>
       <c r="B57" s="1" t="inlineStr">
@@ -1875,7 +1870,7 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="D57" s="3" t="inlineStr">
+      <c r="D57" s="2" t="inlineStr">
         <is>
           <t>SUCCESS (via decomposition)</t>
         </is>
@@ -1884,7 +1879,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>MaxPool</t>
+          <t>HardSwish</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
@@ -1897,7 +1892,7 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="D58" s="3" t="inlineStr">
+      <c r="D58" s="2" t="inlineStr">
         <is>
           <t>SUCCESS (via decomposition)</t>
         </is>
@@ -1906,7 +1901,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>GlobalMaxPool</t>
+          <t>Hardmax</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr">
@@ -1916,19 +1911,19 @@
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D59" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>GlobalAveragePool</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
@@ -1938,19 +1933,19 @@
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D60" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Dropout</t>
+          <t>If</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr">
@@ -1960,19 +1955,19 @@
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>BatchNormalization</t>
+          <t>ImageDecoder</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
@@ -1980,14 +1975,10 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
+      <c r="C62" s="1" t="inlineStr"/>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ImageDecoder(20) node with name ''</t>
         </is>
       </c>
     </row>
@@ -2007,7 +1998,7 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="D63" s="3" t="inlineStr">
+      <c r="D63" s="2" t="inlineStr">
         <is>
           <t>SUCCESS (via decomposition)</t>
         </is>
@@ -2016,7 +2007,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>LayerNormalization</t>
+          <t>IsInf</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
@@ -2038,7 +2029,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>GroupNormalization</t>
+          <t>IsNaN</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr">
@@ -2048,19 +2039,19 @@
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D65" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>AffineGrid</t>
+          <t>LRN</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr">
@@ -2070,19 +2061,19 @@
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>GridSample</t>
+          <t>LSTM</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr">
@@ -2104,7 +2095,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Resize</t>
+          <t>LayerNormalization</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr">
@@ -2126,7 +2117,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Bernoulli</t>
+          <t>Less</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr">
@@ -2136,19 +2127,19 @@
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D69" s="4" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>BitShift</t>
+          <t>LessOrEqual</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr">
@@ -2158,19 +2149,19 @@
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>BitwiseNot</t>
+          <t>Loop</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
@@ -2192,7 +2183,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>BlackmanWindow</t>
+          <t>LpNormalization</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr">
@@ -2202,19 +2193,19 @@
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Cast</t>
+          <t>LpPool</t>
         </is>
       </c>
       <c r="B73" s="1" t="inlineStr">
@@ -2236,7 +2227,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>CastLike</t>
+          <t>MatMul</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr">
@@ -2249,7 +2240,7 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="D74" s="3" t="inlineStr">
+      <c r="D74" s="2" t="inlineStr">
         <is>
           <t>SUCCESS (via decomposition)</t>
         </is>
@@ -2258,7 +2249,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>CenterCropPad</t>
+          <t>MatMulInteger</t>
         </is>
       </c>
       <c r="B75" s="1" t="inlineStr">
@@ -2266,22 +2257,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C75" s="1" t="inlineStr"/>
-      <c r="D75" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FAIL run: [ONNXRuntimeError] : 1 : FAIL : Non-zero status code returned while running OpenVINO-EP-subgraph_45 node. Name:'OpenVINOExecutionProvider_OpenVINO-EP-subgraph_45_0' Status Message: C:\Users\Administrator\Documents\jatin\python_wheels_latest_122222222\onnxruntime\onnxruntime\core\providers\openvino\ov_interface.cc:300 void __cdecl onnxruntime::openvino_ep::OVInferRequest::WaitRequest(void) [OpenVINO-EP]  Wait Model Failed: Exception from src\inference\src\cpp\infer_request.cpp:245:
-Exception from src\plugins\intel_cpu\src\node.cpp:790:
-[CPU] Pad node with name '_inlfunc_CenterCropPad_padded_input' Check 'pads_begin_coord-&gt;size() == static_cast&lt;size_t&gt;(arg_rank_len)' failed at src\core\shape_inference\include\pad_shape_inference.hpp:62:
-While validating node 'opset1::Pad _inlfunc_CenterCropPad_padded_input (opset1::Parameter input_data[0]:f32[1,3,224,224], opset1::Split Split_185159[0]:i32[2], opset1::Split Split_185159[1]:i32[2], opset1::Constant Constant_185157[0]:f32[]) -&gt; (f32[?,?,?,?])' with friendly_name '_inlfunc_CenterCropPad_padded_input':
-length of pads_begin mismatches with rank of input, expect 4, but got 2
-</t>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Clip</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="B76" s="1" t="inlineStr">
@@ -2294,7 +2284,7 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="D76" s="3" t="inlineStr">
+      <c r="D76" s="2" t="inlineStr">
         <is>
           <t>SUCCESS (via decomposition)</t>
         </is>
@@ -2303,7 +2293,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Col2Im</t>
+          <t>MaxPool</t>
         </is>
       </c>
       <c r="B77" s="1" t="inlineStr">
@@ -2313,19 +2303,19 @@
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Compress</t>
+          <t>MaxRoiPool</t>
         </is>
       </c>
       <c r="B78" s="1" t="inlineStr">
@@ -2335,19 +2325,19 @@
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D78" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>ConcatFromSequence</t>
+          <t>MaxUnpool</t>
         </is>
       </c>
       <c r="B79" s="1" t="inlineStr">
@@ -2369,7 +2359,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Constant</t>
+          <t>Mean</t>
         </is>
       </c>
       <c r="B80" s="1" t="inlineStr">
@@ -2377,17 +2367,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C80" s="1" t="inlineStr"/>
-      <c r="D80" s="6" t="inlineStr">
-        <is>
-          <t>UNKNOWN (no Node event)</t>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>ConstantOfShape</t>
+          <t>MeanVarianceNormalization</t>
         </is>
       </c>
       <c r="B81" s="1" t="inlineStr">
@@ -2397,19 +2391,19 @@
       </c>
       <c r="C81" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>MelWeightMatrix</t>
         </is>
       </c>
       <c r="B82" s="1" t="inlineStr">
@@ -2419,19 +2413,19 @@
       </c>
       <c r="C82" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D82" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>ConvTranspose</t>
+          <t>Min</t>
         </is>
       </c>
       <c r="B83" s="1" t="inlineStr">
@@ -2444,7 +2438,7 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="D83" s="3" t="inlineStr">
+      <c r="D83" s="2" t="inlineStr">
         <is>
           <t>SUCCESS (via decomposition)</t>
         </is>
@@ -2453,7 +2447,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>ConvInteger</t>
+          <t>Mod</t>
         </is>
       </c>
       <c r="B84" s="1" t="inlineStr">
@@ -2463,19 +2457,19 @@
       </c>
       <c r="C84" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>CumSum</t>
+          <t>Mul</t>
         </is>
       </c>
       <c r="B85" s="1" t="inlineStr">
@@ -2488,7 +2482,7 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="D85" s="3" t="inlineStr">
+      <c r="D85" s="2" t="inlineStr">
         <is>
           <t>SUCCESS (via decomposition)</t>
         </is>
@@ -2497,7 +2491,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>DFT</t>
+          <t>Multinomial</t>
         </is>
       </c>
       <c r="B86" s="1" t="inlineStr">
@@ -2519,7 +2513,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>DepthToSpace</t>
+          <t>NegativeLogLikelihoodLoss</t>
         </is>
       </c>
       <c r="B87" s="1" t="inlineStr">
@@ -2529,19 +2523,19 @@
       </c>
       <c r="C87" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D87" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider,OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>DequantizeLinear</t>
+          <t>NonMaxSuppression</t>
         </is>
       </c>
       <c r="B88" s="1" t="inlineStr">
@@ -2563,7 +2557,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Det</t>
+          <t>NonZero</t>
         </is>
       </c>
       <c r="B89" s="1" t="inlineStr">
@@ -2585,7 +2579,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>DynamicQuantizeLinear</t>
+          <t>Not</t>
         </is>
       </c>
       <c r="B90" s="1" t="inlineStr">
@@ -2607,7 +2601,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Einsum</t>
+          <t>Not</t>
         </is>
       </c>
       <c r="B91" s="1" t="inlineStr">
@@ -2629,7 +2623,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>EyeLike</t>
+          <t>OneHot</t>
         </is>
       </c>
       <c r="B92" s="1" t="inlineStr">
@@ -2651,7 +2645,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>Optional</t>
         </is>
       </c>
       <c r="B93" s="1" t="inlineStr">
@@ -2661,19 +2655,19 @@
       </c>
       <c r="C93" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D93" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Gelu</t>
+          <t>OptionalGetElement</t>
         </is>
       </c>
       <c r="B94" s="1" t="inlineStr">
@@ -2683,19 +2677,19 @@
       </c>
       <c r="C94" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D94" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>HammingWindow</t>
+          <t>OptionalHasElement</t>
         </is>
       </c>
       <c r="B95" s="1" t="inlineStr">
@@ -2717,7 +2711,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>HannWindow</t>
+          <t>Or</t>
         </is>
       </c>
       <c r="B96" s="1" t="inlineStr">
@@ -2727,19 +2721,19 @@
       </c>
       <c r="C96" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>HardSigmoid</t>
+          <t>PRelu</t>
         </is>
       </c>
       <c r="B97" s="1" t="inlineStr">
@@ -2752,7 +2746,7 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="D97" s="3" t="inlineStr">
+      <c r="D97" s="2" t="inlineStr">
         <is>
           <t>SUCCESS (via decomposition)</t>
         </is>
@@ -2761,7 +2755,7 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>HardSwish</t>
+          <t>Pad</t>
         </is>
       </c>
       <c r="B98" s="1" t="inlineStr">
@@ -2771,19 +2765,19 @@
       </c>
       <c r="C98" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D98" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Hardmax</t>
+          <t>Pow</t>
         </is>
       </c>
       <c r="B99" s="1" t="inlineStr">
@@ -2793,19 +2787,19 @@
       </c>
       <c r="C99" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>QLinearConv</t>
         </is>
       </c>
       <c r="B100" s="1" t="inlineStr">
@@ -2827,7 +2821,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>If</t>
+          <t>QLinearMatMul</t>
         </is>
       </c>
       <c r="B101" s="1" t="inlineStr">
@@ -2840,7 +2834,7 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="D101" s="3" t="inlineStr">
+      <c r="D101" s="2" t="inlineStr">
         <is>
           <t>SUCCESS (via decomposition)</t>
         </is>
@@ -2849,7 +2843,7 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>LRN</t>
+          <t>QuantizeLinear</t>
         </is>
       </c>
       <c r="B102" s="1" t="inlineStr">
@@ -2859,19 +2853,19 @@
       </c>
       <c r="C102" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D102" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>RNN</t>
         </is>
       </c>
       <c r="B103" s="1" t="inlineStr">
@@ -2881,19 +2875,19 @@
       </c>
       <c r="C103" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Loop</t>
+          <t>RandomNormal</t>
         </is>
       </c>
       <c r="B104" s="1" t="inlineStr">
@@ -2915,7 +2909,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>LpNormalization</t>
+          <t>RandomNormalLike</t>
         </is>
       </c>
       <c r="B105" s="1" t="inlineStr">
@@ -2925,19 +2919,19 @@
       </c>
       <c r="C105" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D105" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>LpPool</t>
+          <t>RandomUniform</t>
         </is>
       </c>
       <c r="B106" s="1" t="inlineStr">
@@ -2959,7 +2953,7 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>MatMulInteger</t>
+          <t>RandomUniformLike</t>
         </is>
       </c>
       <c r="B107" s="1" t="inlineStr">
@@ -2969,19 +2963,19 @@
       </c>
       <c r="C107" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D107" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>MaxRoiPool</t>
+          <t>Range</t>
         </is>
       </c>
       <c r="B108" s="1" t="inlineStr">
@@ -3003,7 +2997,7 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>MaxUnpool</t>
+          <t>ReduceL1</t>
         </is>
       </c>
       <c r="B109" s="1" t="inlineStr">
@@ -3013,19 +3007,19 @@
       </c>
       <c r="C109" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>MeanVarianceNormalization</t>
+          <t>ReduceL2</t>
         </is>
       </c>
       <c r="B110" s="1" t="inlineStr">
@@ -3038,7 +3032,7 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="D110" s="3" t="inlineStr">
+      <c r="D110" s="2" t="inlineStr">
         <is>
           <t>SUCCESS (via decomposition)</t>
         </is>
@@ -3047,7 +3041,7 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>MelWeightMatrix</t>
+          <t>ReduceLogSum</t>
         </is>
       </c>
       <c r="B111" s="1" t="inlineStr">
@@ -3057,19 +3051,19 @@
       </c>
       <c r="C111" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Multinomial</t>
+          <t>ReduceLogSumExp</t>
         </is>
       </c>
       <c r="B112" s="1" t="inlineStr">
@@ -3079,19 +3073,19 @@
       </c>
       <c r="C112" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>NegativeLogLikelihoodLoss</t>
+          <t>ReduceMax</t>
         </is>
       </c>
       <c r="B113" s="1" t="inlineStr">
@@ -3101,19 +3095,19 @@
       </c>
       <c r="C113" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider,OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D113" s="4" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>NonMaxSuppression</t>
+          <t>ReduceMean</t>
         </is>
       </c>
       <c r="B114" s="1" t="inlineStr">
@@ -3123,19 +3117,19 @@
       </c>
       <c r="C114" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>NonZero</t>
+          <t>ReduceMin</t>
         </is>
       </c>
       <c r="B115" s="1" t="inlineStr">
@@ -3157,7 +3151,7 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>OneHot</t>
+          <t>ReduceProd</t>
         </is>
       </c>
       <c r="B116" s="1" t="inlineStr">
@@ -3167,19 +3161,19 @@
       </c>
       <c r="C116" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Optional</t>
+          <t>ReduceSum</t>
         </is>
       </c>
       <c r="B117" s="1" t="inlineStr">
@@ -3189,19 +3183,19 @@
       </c>
       <c r="C117" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>OptionalGetElement</t>
+          <t>ReduceSumSquare</t>
         </is>
       </c>
       <c r="B118" s="1" t="inlineStr">
@@ -3211,19 +3205,19 @@
       </c>
       <c r="C118" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>OptionalHasElement</t>
+          <t>RegexFullMatch</t>
         </is>
       </c>
       <c r="B119" s="1" t="inlineStr">
@@ -3245,7 +3239,7 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>PRelu</t>
+          <t>Reshape</t>
         </is>
       </c>
       <c r="B120" s="1" t="inlineStr">
@@ -3255,19 +3249,19 @@
       </c>
       <c r="C120" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D120" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>QLinearConv</t>
+          <t>Resize</t>
         </is>
       </c>
       <c r="B121" s="1" t="inlineStr">
@@ -3289,7 +3283,7 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>QLinearMatMul</t>
+          <t>ReverseSequence</t>
         </is>
       </c>
       <c r="B122" s="1" t="inlineStr">
@@ -3302,7 +3296,7 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="D122" s="3" t="inlineStr">
+      <c r="D122" s="2" t="inlineStr">
         <is>
           <t>SUCCESS (via decomposition)</t>
         </is>
@@ -3311,7 +3305,7 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>QuantizeLinear</t>
+          <t>RoiAlign</t>
         </is>
       </c>
       <c r="B123" s="1" t="inlineStr">
@@ -3333,7 +3327,7 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>STFT</t>
         </is>
       </c>
       <c r="B124" s="1" t="inlineStr">
@@ -3343,19 +3337,19 @@
       </c>
       <c r="C124" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D124" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>RandomNormal</t>
+          <t>Scan</t>
         </is>
       </c>
       <c r="B125" s="1" t="inlineStr">
@@ -3377,7 +3371,7 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>RandomNormalLike</t>
+          <t>ScatterElements</t>
         </is>
       </c>
       <c r="B126" s="1" t="inlineStr">
@@ -3387,19 +3381,19 @@
       </c>
       <c r="C126" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>RandomUniform</t>
+          <t>ScatterND</t>
         </is>
       </c>
       <c r="B127" s="1" t="inlineStr">
@@ -3409,19 +3403,19 @@
       </c>
       <c r="C127" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>RandomUniformLike</t>
+          <t>SequenceAt</t>
         </is>
       </c>
       <c r="B128" s="1" t="inlineStr">
@@ -3443,7 +3437,7 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Range</t>
+          <t>SequenceConstruct</t>
         </is>
       </c>
       <c r="B129" s="1" t="inlineStr">
@@ -3465,7 +3459,7 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>RegexFullMatch</t>
+          <t>SequenceEmpty</t>
         </is>
       </c>
       <c r="B130" s="1" t="inlineStr">
@@ -3487,7 +3481,7 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>ReverseSequence</t>
+          <t>SequenceErase</t>
         </is>
       </c>
       <c r="B131" s="1" t="inlineStr">
@@ -3497,19 +3491,19 @@
       </c>
       <c r="C131" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D131" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>RoiAlign</t>
+          <t>SequenceInsert</t>
         </is>
       </c>
       <c r="B132" s="1" t="inlineStr">
@@ -3531,7 +3525,7 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>STFT</t>
+          <t>SequenceLength</t>
         </is>
       </c>
       <c r="B133" s="1" t="inlineStr">
@@ -3553,7 +3547,7 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Scan</t>
+          <t>SequenceMap</t>
         </is>
       </c>
       <c r="B134" s="1" t="inlineStr">
@@ -3561,21 +3555,18 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C134" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D134" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="C134" s="1" t="inlineStr"/>
+      <c r="D134" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. In Node, ("", Loop, "", -1) : ("_inlfunc_SequenceMap_SequenceMap_input_sequence_seqlen": tensor(int64),"_inlfunc_SequenceMap_SequenceMap_input_sequence_cond": tensor(bool),"_inlfunc_SequenceMap_SequenceMap_out_sequence_0_seqempty": seq(tensor(float)),) -&gt; ("output_seq": seq(tensor(float)),) , Error No opset import for domain 'com.intel.ai'
+==&gt; Context: Bad node spec for node. Name: _inlfunc_SequenceMap_OpenVINOExecutionProvider_OpenVINO-EP-subgraph_61_0 OpType: OpenVINO-EP-subgraph_61</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>SequenceAt</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B135" s="1" t="inlineStr">
@@ -3583,21 +3574,17 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C135" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D135" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="C135" s="1" t="inlineStr"/>
+      <c r="D135" s="4" t="inlineStr">
+        <is>
+          <t>UNKNOWN (no Node event)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>SequenceConstruct</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="B136" s="1" t="inlineStr">
@@ -3619,7 +3606,7 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>SequenceEmpty</t>
+          <t>Slice</t>
         </is>
       </c>
       <c r="B137" s="1" t="inlineStr">
@@ -3641,7 +3628,7 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>SequenceErase</t>
+          <t>SoftmaxCrossEntropyLoss</t>
         </is>
       </c>
       <c r="B138" s="1" t="inlineStr">
@@ -3651,19 +3638,19 @@
       </c>
       <c r="C138" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>CPUExecutionProvider,OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>SequenceInsert</t>
+          <t>SpaceToDepth</t>
         </is>
       </c>
       <c r="B139" s="1" t="inlineStr">
@@ -3673,19 +3660,19 @@
       </c>
       <c r="C139" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>SequenceLength</t>
+          <t>Split</t>
         </is>
       </c>
       <c r="B140" s="1" t="inlineStr">
@@ -3707,7 +3694,7 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>SequenceMap</t>
+          <t>SplitToSequence</t>
         </is>
       </c>
       <c r="B141" s="1" t="inlineStr">
@@ -3715,18 +3702,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C141" s="1" t="inlineStr"/>
-      <c r="D141" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. In Node, ("", Loop, "", -1) : ("_inlfunc_SequenceMap_SequenceMap_input_sequence_seqlen": tensor(int64),"_inlfunc_SequenceMap_SequenceMap_input_sequence_cond": tensor(bool),"_inlfunc_SequenceMap_SequenceMap_out_sequence_0_seqempty": seq(tensor(float)),) -&gt; ("output_seq": seq(tensor(float)),) , Error No opset import for domain 'com.intel.ai'
-==&gt; Context: Bad node spec for node. Name: _inlfunc_SequenceMap_OpenVINOExecutionProvider_OpenVINO-EP-subgraph_66_0 OpType: OpenVINO-EP-subgraph_66</t>
+      <c r="C141" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Squeeze</t>
         </is>
       </c>
       <c r="B142" s="1" t="inlineStr">
@@ -3734,17 +3724,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C142" s="1" t="inlineStr"/>
-      <c r="D142" s="6" t="inlineStr">
-        <is>
-          <t>UNKNOWN (no Node event)</t>
+      <c r="C142" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Size</t>
+          <t>StringConcat</t>
         </is>
       </c>
       <c r="B143" s="1" t="inlineStr">
@@ -3766,7 +3760,7 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>SoftmaxCrossEntropyLoss</t>
+          <t>StringNormalizer</t>
         </is>
       </c>
       <c r="B144" s="1" t="inlineStr">
@@ -3776,19 +3770,19 @@
       </c>
       <c r="C144" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider,OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D144" s="4" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>SpaceToDepth</t>
+          <t>StringSplit</t>
         </is>
       </c>
       <c r="B145" s="1" t="inlineStr">
@@ -3798,19 +3792,19 @@
       </c>
       <c r="C145" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D145" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>SplitToSequence</t>
+          <t>Sub</t>
         </is>
       </c>
       <c r="B146" s="1" t="inlineStr">
@@ -3820,19 +3814,19 @@
       </c>
       <c r="C146" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>StringConcat</t>
+          <t>Sum</t>
         </is>
       </c>
       <c r="B147" s="1" t="inlineStr">
@@ -3842,19 +3836,19 @@
       </c>
       <c r="C147" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>StringNormalizer</t>
+          <t>TfIdfVectorizer</t>
         </is>
       </c>
       <c r="B148" s="1" t="inlineStr">
@@ -3876,7 +3870,7 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>StringSplit</t>
+          <t>Tile</t>
         </is>
       </c>
       <c r="B149" s="1" t="inlineStr">
@@ -3920,7 +3914,7 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Trilu</t>
+          <t>Transpose</t>
         </is>
       </c>
       <c r="B151" s="1" t="inlineStr">
@@ -3930,19 +3924,19 @@
       </c>
       <c r="C151" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Unique</t>
+          <t>Trilu</t>
         </is>
       </c>
       <c r="B152" s="1" t="inlineStr">
@@ -3964,22 +3958,2311 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
+          <t>Unique</t>
+        </is>
+      </c>
+      <c r="B153" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C153" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>Unsqueeze</t>
+        </is>
+      </c>
+      <c r="B154" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C154" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
           <t>Where</t>
         </is>
       </c>
-      <c r="B153" s="1" t="inlineStr">
-        <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C153" s="1" t="inlineStr">
-        <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D153" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+      <c r="B155" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C155" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>Xor</t>
+        </is>
+      </c>
+      <c r="B156" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C156" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Attention</t>
+        </is>
+      </c>
+      <c r="B157" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C157" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.AttnLSTM</t>
+        </is>
+      </c>
+      <c r="B158" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C158" s="1" t="inlineStr"/>
+      <c r="D158" s="3" t="inlineStr">
+        <is>
+          <t>FAIL (skipped: known crash)</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BeamSearch</t>
+        </is>
+      </c>
+      <c r="B159" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C159" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BiasAdd</t>
+        </is>
+      </c>
+      <c r="B160" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C160" s="1" t="inlineStr"/>
+      <c r="D160" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BiasAdd(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BiasDropout</t>
+        </is>
+      </c>
+      <c r="B161" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C161" s="1" t="inlineStr"/>
+      <c r="D161" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BiasDropout(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BiasGelu</t>
+        </is>
+      </c>
+      <c r="B162" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C162" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BiasSoftmax</t>
+        </is>
+      </c>
+      <c r="B163" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C163" s="1" t="inlineStr"/>
+      <c r="D163" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BiasSoftmax(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BiasSplitGelu</t>
+        </is>
+      </c>
+      <c r="B164" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C164" s="1" t="inlineStr"/>
+      <c r="D164" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BiasSplitGelu(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BifurcationDetector</t>
+        </is>
+      </c>
+      <c r="B165" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C165" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D165" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BitmaskBiasDropout</t>
+        </is>
+      </c>
+      <c r="B166" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C166" s="1" t="inlineStr"/>
+      <c r="D166" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BitmaskBiasDropout(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BitmaskDropout</t>
+        </is>
+      </c>
+      <c r="B167" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C167" s="1" t="inlineStr"/>
+      <c r="D167" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BitmaskDropout(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.CDist</t>
+        </is>
+      </c>
+      <c r="B168" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C168" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.ComplexMul</t>
+        </is>
+      </c>
+      <c r="B169" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C169" s="1" t="inlineStr"/>
+      <c r="D169" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ComplexMul(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.ComplexMulConj</t>
+        </is>
+      </c>
+      <c r="B170" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C170" s="1" t="inlineStr"/>
+      <c r="D170" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ComplexMulConj(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.ConvTransposeWithDynamicPads</t>
+        </is>
+      </c>
+      <c r="B171" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C171" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.CropAndResize</t>
+        </is>
+      </c>
+      <c r="B172" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C172" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.CropAndResize</t>
+        </is>
+      </c>
+      <c r="B173" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C173" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DecoderAttention</t>
+        </is>
+      </c>
+      <c r="B174" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C174" s="1" t="inlineStr"/>
+      <c r="D174" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DecoderAttention(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DecoderMaskedMultiHeadAttention</t>
+        </is>
+      </c>
+      <c r="B175" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C175" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DecoderMaskedSelfAttention</t>
+        </is>
+      </c>
+      <c r="B176" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C176" s="1" t="inlineStr"/>
+      <c r="D176" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. In Node, ("", com.microsoft.DecoderMaskedSelfAttention, "", -1) : ("X": tensor(float),) -&gt; ("Y": tensor(float),) , Error No Op registered for com.microsoft.DecoderMaskedSelfAttention with domain_version of 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DequantizeBFP</t>
+        </is>
+      </c>
+      <c r="B177" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C177" s="1" t="inlineStr"/>
+      <c r="D177" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DequantizeBFP(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DequantizeLinear</t>
+        </is>
+      </c>
+      <c r="B178" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C178" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DequantizeWithOrder</t>
+        </is>
+      </c>
+      <c r="B179" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C179" s="1" t="inlineStr"/>
+      <c r="D179" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DequantizeWithOrder(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DynamicQuantizeLSTM</t>
+        </is>
+      </c>
+      <c r="B180" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C180" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DynamicQuantizeMatMul</t>
+        </is>
+      </c>
+      <c r="B181" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C181" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DynamicTimeWarping</t>
+        </is>
+      </c>
+      <c r="B182" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C182" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.EmbedLayerNormalization</t>
+        </is>
+      </c>
+      <c r="B183" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C183" s="1" t="inlineStr"/>
+      <c r="D183" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FAIL session creation: [ONNXRuntimeError] : 6 : RUNTIME_EXCEPTION : Exception during initialization: C:\Users\Administrator\Documents\jatin\python_wheels_latest_122222222\onnxruntime\onnxruntime\core\providers\openvino\backend_manager.cc:188 __cdecl onnxruntime::openvino_ep::BackendManager::BackendManager(struct onnxruntime::openvino_ep::SessionContext &amp;,class onnxruntime::openvino_ep::SharedContext &amp;,const struct onnxruntime::Node &amp;,const class onnxruntime::GraphViewer &amp;,const struct onnxruntime::logging::Logger &amp;,class onnxruntime::openvino_ep::EPCtxHandler &amp;) C:\Users\Administrator\Documents\jatin\python_wheels_latest_122222222\onnxruntime\onnxruntime\core\providers\openvino\ov_interface.cc:117 class onnxruntime::openvino_ep::OVExeNetwork __cdecl onnxruntime::openvino_ep::OVCore::CompileModel(const class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; &amp;,class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; &amp;,class std::map&lt;class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;,class ov::Any,struct std::less&lt;class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; &gt;,class std::allocator&lt;struct std::pair&lt;class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; const ,class ov::Any&gt; &gt; &gt; &amp;,const class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; &amp;) [OpenVINO-EP]  Exception while Loading Network for graph: OpenVINOExecutionProvider_OpenVINO-EP-subgraph_73_0Exception from src\inference\src\cpp\core.cpp:147:
+Check 'onnx_node.get_outputs_size() &lt;= outputs_size' failed at src\frontends\onnx\frontend\src\core\graph.cpp:399:
+FrontEnd API failed with GeneralFailure:
+Expected output number of EmbedLayerNormalization node is 3 while the implementation provides 2 outputs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.ExpandDims</t>
+        </is>
+      </c>
+      <c r="B184" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C184" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.FastGelu</t>
+        </is>
+      </c>
+      <c r="B185" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C185" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.FusedConv</t>
+        </is>
+      </c>
+      <c r="B186" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C186" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.FusedGemm</t>
+        </is>
+      </c>
+      <c r="B187" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C187" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.FusedMatMul</t>
+        </is>
+      </c>
+      <c r="B188" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C188" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.FusedMatMulActivation</t>
+        </is>
+      </c>
+      <c r="B189" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C189" s="1" t="inlineStr"/>
+      <c r="D189" s="5" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GatedRelativePositionBias</t>
+        </is>
+      </c>
+      <c r="B190" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C190" s="1" t="inlineStr"/>
+      <c r="D190" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GatedRelativePositionBias(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GatherBlockQuantized</t>
+        </is>
+      </c>
+      <c r="B191" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C191" s="1" t="inlineStr"/>
+      <c r="D191" s="5" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GatherND</t>
+        </is>
+      </c>
+      <c r="B192" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C192" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Gelu</t>
+        </is>
+      </c>
+      <c r="B193" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C193" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GemmFastGelu</t>
+        </is>
+      </c>
+      <c r="B194" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C194" s="1" t="inlineStr"/>
+      <c r="D194" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GemmFastGelu(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GemmFloat8</t>
+        </is>
+      </c>
+      <c r="B195" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C195" s="1" t="inlineStr"/>
+      <c r="D195" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GemmFloat8(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GemmaRotaryEmbedding</t>
+        </is>
+      </c>
+      <c r="B196" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C196" s="1" t="inlineStr"/>
+      <c r="D196" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. Type Error: Type 'tensor(float)' of input parameter (InsertedPrecisionFreeCast_q) of operator (GemmaRotaryEmbedding) in node () is invalid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GreedySearch</t>
+        </is>
+      </c>
+      <c r="B197" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C197" s="1" t="inlineStr"/>
+      <c r="D197" s="5" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GridSample</t>
+        </is>
+      </c>
+      <c r="B198" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C198" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GroupNorm</t>
+        </is>
+      </c>
+      <c r="B199" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C199" s="1" t="inlineStr"/>
+      <c r="D199" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GroupNorm(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GroupQueryAttention</t>
+        </is>
+      </c>
+      <c r="B200" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C200" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Inverse</t>
+        </is>
+      </c>
+      <c r="B201" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C201" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Irfft</t>
+        </is>
+      </c>
+      <c r="B202" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C202" s="1" t="inlineStr"/>
+      <c r="D202" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Irfft(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.LongformerAttention</t>
+        </is>
+      </c>
+      <c r="B203" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C203" s="1" t="inlineStr"/>
+      <c r="D203" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for LongformerAttention(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MatMulBnb4</t>
+        </is>
+      </c>
+      <c r="B204" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C204" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MatMulFpQ4</t>
+        </is>
+      </c>
+      <c r="B205" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C205" s="1" t="inlineStr"/>
+      <c r="D205" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FAIL run: [ONNXRuntimeError] : 6 : RUNTIME_EXCEPTION : Non-zero status code returned while running MatMulFpQ4 node. Name:'' Status Message: C:\Users\Administrator\Documents\jatin\python_wheels_latest_122222222\onnxruntime\onnxruntime\contrib_ops\cpu\matmul_fpq4.cc:55 onnxruntime::contrib::MatMulFpQ4::Compute buf_size &gt; 0 was false. Operator MatMulFpQ4 not yet supported on this hardware platform.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MatMulInteger16</t>
+        </is>
+      </c>
+      <c r="B206" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C206" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MatMulIntegerToFloat</t>
+        </is>
+      </c>
+      <c r="B207" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C207" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MatMulNBits</t>
+        </is>
+      </c>
+      <c r="B208" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C208" s="1" t="inlineStr"/>
+      <c r="D208" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FAIL session creation: [ONNXRuntimeError] : 6 : RUNTIME_EXCEPTION : Exception during initialization: C:\Users\Administrator\Documents\jatin\python_wheels_latest_122222222\onnxruntime\onnxruntime\core\providers\openvino\backend_manager.cc:188 __cdecl onnxruntime::openvino_ep::BackendManager::BackendManager(struct onnxruntime::openvino_ep::SessionContext &amp;,class onnxruntime::openvino_ep::SharedContext &amp;,const struct onnxruntime::Node &amp;,const class onnxruntime::GraphViewer &amp;,const struct onnxruntime::logging::Logger &amp;,class onnxruntime::openvino_ep::EPCtxHandler &amp;) C:\Users\Administrator\Documents\jatin\python_wheels_latest_122222222\onnxruntime\onnxruntime\core\providers\openvino\ov_interface.cc:117 class onnxruntime::openvino_ep::OVExeNetwork __cdecl onnxruntime::openvino_ep::OVCore::CompileModel(const class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; &amp;,class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; &amp;,class std::map&lt;class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;,class ov::Any,struct std::less&lt;class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; &gt;,class std::allocator&lt;struct std::pair&lt;class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; const ,class ov::Any&gt; &gt; &gt; &amp;,const class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; &amp;) [OpenVINO-EP]  Exception while Loading Network for graph: OpenVINOExecutionProvider_OpenVINO-EP-subgraph_78_0Exception from src\inference\src\cpp\core.cpp:147:
+Check 'false' failed at src\frontends\onnx\frontend\src\frontend.cpp:164:
+FrontEnd API failed with GeneralFailure:
+Errors during ONNX translation:
+Check '(ov::as_type&lt;v0::Constant&gt;(b_quantized.get_node()) != nullptr)' failed at src\frontends\onnx\frontend\src\op\com.microsoft\matmulnbits.cpp:55:
+While validating ONNX node '&lt;Node(MatMulNBits): Y&gt;':
+MatMulNBits limitation: accepting only a constant as a B input
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MaxpoolWithMask</t>
+        </is>
+      </c>
+      <c r="B209" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C209" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MoE</t>
+        </is>
+      </c>
+      <c r="B210" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C210" s="1" t="inlineStr"/>
+      <c r="D210" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for MoE(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MulInteger</t>
+        </is>
+      </c>
+      <c r="B211" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C211" s="1" t="inlineStr"/>
+      <c r="D211" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for MulInteger(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MultiHeadAttention</t>
+        </is>
+      </c>
+      <c r="B212" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C212" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MurmurHash3</t>
+        </is>
+      </c>
+      <c r="B213" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C213" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.NGramRepeatBlock</t>
+        </is>
+      </c>
+      <c r="B214" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C214" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.NhwcConv</t>
+        </is>
+      </c>
+      <c r="B215" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C215" s="1" t="inlineStr"/>
+      <c r="D215" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for NhwcConv(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.NhwcFusedConv</t>
+        </is>
+      </c>
+      <c r="B216" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C216" s="1" t="inlineStr"/>
+      <c r="D216" s="5" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.NhwcMaxPool</t>
+        </is>
+      </c>
+      <c r="B217" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C217" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.PackedAttention</t>
+        </is>
+      </c>
+      <c r="B218" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C218" s="1" t="inlineStr"/>
+      <c r="D218" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for PackedAttention(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.PackedMultiHeadAttention</t>
+        </is>
+      </c>
+      <c r="B219" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C219" s="1" t="inlineStr"/>
+      <c r="D219" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for PackedMultiHeadAttention(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Pad</t>
+        </is>
+      </c>
+      <c r="B220" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C220" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QAttention</t>
+        </is>
+      </c>
+      <c r="B221" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C221" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D221" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QGemm</t>
+        </is>
+      </c>
+      <c r="B222" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C222" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearAdd</t>
+        </is>
+      </c>
+      <c r="B223" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C223" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearAveragePool</t>
+        </is>
+      </c>
+      <c r="B224" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C224" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearConcat</t>
+        </is>
+      </c>
+      <c r="B225" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C225" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearConv</t>
+        </is>
+      </c>
+      <c r="B226" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C226" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D226" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearGlobalAveragePool</t>
+        </is>
+      </c>
+      <c r="B227" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C227" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D227" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearLeakyRelu</t>
+        </is>
+      </c>
+      <c r="B228" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C228" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearMul</t>
+        </is>
+      </c>
+      <c r="B229" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C229" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearReduceMean</t>
+        </is>
+      </c>
+      <c r="B230" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C230" s="1" t="inlineStr"/>
+      <c r="D230" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QLinearReduceMean(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearSigmoid</t>
+        </is>
+      </c>
+      <c r="B231" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C231" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D231" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearSoftmax</t>
+        </is>
+      </c>
+      <c r="B232" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C232" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearWhere</t>
+        </is>
+      </c>
+      <c r="B233" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C233" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D233" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QMoE</t>
+        </is>
+      </c>
+      <c r="B234" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C234" s="1" t="inlineStr"/>
+      <c r="D234" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. Type Error: Type 'tensor(float)' of input parameter (InsertedPrecisionFreeCast_input) of operator (QMoE) in node () is invalid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QOrderedAttention</t>
+        </is>
+      </c>
+      <c r="B235" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C235" s="1" t="inlineStr"/>
+      <c r="D235" s="5" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QOrderedGelu</t>
+        </is>
+      </c>
+      <c r="B236" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C236" s="1" t="inlineStr"/>
+      <c r="D236" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QOrderedGelu(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QOrderedLayerNormalization</t>
+        </is>
+      </c>
+      <c r="B237" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C237" s="1" t="inlineStr"/>
+      <c r="D237" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QOrderedLayerNormalization(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QOrderedLongformerAttention</t>
+        </is>
+      </c>
+      <c r="B238" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C238" s="1" t="inlineStr"/>
+      <c r="D238" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. Type Error: Type 'tensor(float)' of input parameter (InsertedPrecisionFreeCast_mask) of operator (QOrderedLongformerAttention) in node () is invalid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QOrderedMatMul</t>
+        </is>
+      </c>
+      <c r="B239" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C239" s="1" t="inlineStr"/>
+      <c r="D239" s="5" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QuantizeBFP</t>
+        </is>
+      </c>
+      <c r="B240" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C240" s="1" t="inlineStr"/>
+      <c r="D240" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QuantizeBFP(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QuantizeLinear</t>
+        </is>
+      </c>
+      <c r="B241" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C241" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QuantizeWithOrder</t>
+        </is>
+      </c>
+      <c r="B242" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C242" s="1" t="inlineStr"/>
+      <c r="D242" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QuantizeWithOrder(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QuickGelu</t>
+        </is>
+      </c>
+      <c r="B243" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C243" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D243" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Range</t>
+        </is>
+      </c>
+      <c r="B244" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C244" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D244" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.ReduceSumInteger</t>
+        </is>
+      </c>
+      <c r="B245" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C245" s="1" t="inlineStr"/>
+      <c r="D245" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ReduceSumInteger(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.RelativePositionBias</t>
+        </is>
+      </c>
+      <c r="B246" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C246" s="1" t="inlineStr"/>
+      <c r="D246" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RelativePositionBias(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.RemovePadding</t>
+        </is>
+      </c>
+      <c r="B247" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C247" s="1" t="inlineStr"/>
+      <c r="D247" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RemovePadding(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.RestorePadding</t>
+        </is>
+      </c>
+      <c r="B248" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C248" s="1" t="inlineStr"/>
+      <c r="D248" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RestorePadding(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Rfft</t>
+        </is>
+      </c>
+      <c r="B249" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C249" s="1" t="inlineStr"/>
+      <c r="D249" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Rfft(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.RotaryEmbedding</t>
+        </is>
+      </c>
+      <c r="B250" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C250" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D250" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.SampleOp</t>
+        </is>
+      </c>
+      <c r="B251" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C251" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D251" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Sampling</t>
+        </is>
+      </c>
+      <c r="B252" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C252" s="1" t="inlineStr"/>
+      <c r="D252" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FAIL session creation: [ONNXRuntimeError] : 6 : RUNTIME_EXCEPTION : Exception during initialization: C:\Users\Administrator\Documents\jatin\python_wheels_latest_122222222\onnxruntime\onnxruntime\core\providers\openvino\ov_interface.cc:79 class std::shared_ptr&lt;class ov::Model&gt; __cdecl onnxruntime::openvino_ep::OVCore::ReadModel(class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; &amp;&amp;,const class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; &amp;) [OpenVINO-EP] [OpenVINO-EP] Exception while Reading network: Check 'onnx_node.get_outputs_size() &lt;= outputs_size' failed at src\frontends\onnx\frontend\src\core\graph.cpp:399:
+FrontEnd API failed with GeneralFailure:
+Expected output number of EmbedLayerNormalization node is 3 while the implementation provides 2 outputs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.SkipGroupNorm</t>
+        </is>
+      </c>
+      <c r="B253" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C253" s="1" t="inlineStr"/>
+      <c r="D253" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for SkipGroupNorm(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.SkipLayerNormalization</t>
+        </is>
+      </c>
+      <c r="B254" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C254" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D254" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.SkipSimplifiedLayerNormalization</t>
+        </is>
+      </c>
+      <c r="B255" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C255" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D255" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Snpe</t>
+        </is>
+      </c>
+      <c r="B256" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C256" s="1" t="inlineStr"/>
+      <c r="D256" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Snpe(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.SparseAttention</t>
+        </is>
+      </c>
+      <c r="B257" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C257" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D257" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.SparseToDenseMatMul</t>
+        </is>
+      </c>
+      <c r="B258" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C258" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D258" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Tokenizer</t>
+        </is>
+      </c>
+      <c r="B259" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C259" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D259" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.TorchEmbedding</t>
+        </is>
+      </c>
+      <c r="B260" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C260" s="1" t="inlineStr"/>
+      <c r="D260" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for TorchEmbedding(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.TransposeMatMul</t>
+        </is>
+      </c>
+      <c r="B261" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C261" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D261" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Trilu</t>
+        </is>
+      </c>
+      <c r="B262" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C262" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D262" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.UnfoldTensor</t>
+        </is>
+      </c>
+      <c r="B263" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C263" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D263" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Unique</t>
+        </is>
+      </c>
+      <c r="B264" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C264" s="1" t="inlineStr"/>
+      <c r="D264" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Unique(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.WhisperBeamSearch</t>
+        </is>
+      </c>
+      <c r="B265" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C265" s="1" t="inlineStr"/>
+      <c r="D265" s="5" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.WordConvEmbedding</t>
+        </is>
+      </c>
+      <c r="B266" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C266" s="1" t="inlineStr"/>
+      <c r="D266" s="3" t="inlineStr">
+        <is>
+          <t>FAIL (skipped: known crash)</t>
         </is>
       </c>
     </row>
@@ -3995,7 +6278,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4032,10 +6315,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="3">
@@ -4045,10 +6328,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>42.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4058,10 +6341,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>52.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4071,10 +6354,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4087,31 +6370,57 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>NOT TESTED</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>50</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18.9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Report generated on</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-06-05 09:43:16</t>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-06-06 17:57:31</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/Intel - OpenVINO™/report_OpenVINOExecutionProvider.xlsx
+++ b/Execution Providers Tester/Intel - OpenVINO™/report_OpenVINOExecutionProvider.xlsx
@@ -615,7 +615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D266"/>
+  <dimension ref="A1:D263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,7 +625,7 @@
   <cols>
     <col width="48" customWidth="1" min="1" max="1"/>
     <col width="27" customWidth="1" min="2" max="2"/>
-    <col width="48" customWidth="1" min="3" max="3"/>
+    <col width="27" customWidth="1" min="3" max="3"/>
     <col width="80" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -664,12 +664,12 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -816,14 +816,10 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C9" s="1" t="inlineStr"/>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RandomUniformLike(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -840,7 +836,7 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -862,7 +858,7 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -884,7 +880,7 @@
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -906,7 +902,7 @@
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -928,7 +924,7 @@
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -950,7 +946,7 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -972,12 +968,12 @@
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -1017,10 +1013,10 @@
       <c r="C18" s="1" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">FAIL run: [ONNXRuntimeError] : 1 : FAIL : Non-zero status code returned while running OpenVINO-EP-subgraph_7 node. Name:'OpenVINOExecutionProvider_OpenVINO-EP-subgraph_7_0' Status Message: C:\Users\Administrator\Documents\jatin\python_wheels_latest_122222222\onnxruntime\onnxruntime\core\providers\openvino\ov_interface.cc:300 void __cdecl onnxruntime::openvino_ep::OVInferRequest::WaitRequest(void) [OpenVINO-EP]  Wait Model Failed: Exception from src\inference\src\cpp\infer_request.cpp:245:
+          <t xml:space="preserve">FAIL run: [ONNXRuntimeError] : 1 : FAIL : Non-zero status code returned while running OpenVINO-EP-subgraph_15 node. Name:'OpenVINOExecutionProvider_OpenVINO-EP-subgraph_15_0' Status Message: C:\Users\Administrator\Documents\jatin\python_wheels_latest_122222222\onnxruntime\onnxruntime\core\providers\openvino\ov_interface.cc:300 void __cdecl onnxruntime::openvino_ep::OVInferRequest::WaitRequest(void) [OpenVINO-EP]  Wait Model Failed: Exception from src\inference\src\cpp\infer_request.cpp:245:
 Exception from src\plugins\intel_cpu\src\node.cpp:790:
 [CPU] Pad node with name '_inlfunc_CenterCropPad_padded_input' Check 'pads_begin_coord-&gt;size() == static_cast&lt;size_t&gt;(arg_rank_len)' failed at src\core\shape_inference\include\pad_shape_inference.hpp:62:
-While validating node 'opset1::Pad _inlfunc_CenterCropPad_padded_input (opset1::Parameter input_data[0]:f32[1,3,224,224], opset1::Split Split_25330[0]:i32[2], opset1::Split Split_25330[1]:i32[2], opset1::Constant Constant_25328[0]:f32[]) -&gt; (f32[?,?,?,?])' with friendly_name '_inlfunc_CenterCropPad_padded_input':
+While validating node 'opset1::Pad _inlfunc_CenterCropPad_padded_input (opset1::Parameter input_data[0]:f32[1,3,224,224], opset1::Split Split_61137[0]:i32[2], opset1::Split Split_61137[1]:i32[2], opset1::Constant Constant_61135[0]:f32[]) -&gt; (f32[?,?,?,?])' with friendly_name '_inlfunc_CenterCropPad_padded_input':
 length of pads_begin mismatches with rank of input, expect 4, but got 2
 </t>
         </is>
@@ -1061,7 +1057,7 @@
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -1105,12 +1101,12 @@
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -1167,12 +1163,12 @@
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1207,7 @@
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -1277,7 +1273,7 @@
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
@@ -1300,7 +1296,7 @@
       <c r="C31" s="1" t="inlineStr"/>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DeformConv(19) node with name ''</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DeformConv(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1335,12 @@
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1357,7 @@
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
@@ -1405,7 +1401,7 @@
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
@@ -1427,7 +1423,7 @@
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
@@ -1449,12 +1445,12 @@
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -1493,12 +1489,12 @@
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -1515,12 +1511,12 @@
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -1603,12 +1599,12 @@
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -1625,12 +1621,12 @@
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1819,7 @@
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
@@ -1845,7 +1841,7 @@
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
@@ -1911,7 +1907,7 @@
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
@@ -1933,12 +1929,12 @@
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2013,7 @@
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
@@ -2039,7 +2035,7 @@
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
@@ -2083,12 +2079,12 @@
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -2105,12 +2101,12 @@
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -2171,12 +2167,12 @@
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2211,7 @@
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
@@ -2323,14 +2319,10 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C78" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D78" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="C78" s="1" t="inlineStr"/>
+      <c r="D78" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for MaxRoiPool(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2339,7 @@
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
@@ -2413,7 +2405,7 @@
       </c>
       <c r="C82" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
@@ -2499,14 +2491,10 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C86" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="C86" s="1" t="inlineStr"/>
+      <c r="D86" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Multinomial(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -2523,12 +2511,12 @@
       </c>
       <c r="C87" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider,OpenVINOExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
@@ -2545,12 +2533,12 @@
       </c>
       <c r="C88" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -2567,12 +2555,12 @@
       </c>
       <c r="C89" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -2589,12 +2577,12 @@
       </c>
       <c r="C90" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -2611,12 +2599,12 @@
       </c>
       <c r="C91" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -2633,12 +2621,12 @@
       </c>
       <c r="C92" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -2655,7 +2643,7 @@
       </c>
       <c r="C93" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
@@ -2677,7 +2665,7 @@
       </c>
       <c r="C94" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
@@ -2699,7 +2687,7 @@
       </c>
       <c r="C95" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
@@ -2765,7 +2753,7 @@
       </c>
       <c r="C98" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
@@ -2809,7 +2797,7 @@
       </c>
       <c r="C100" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
@@ -2853,12 +2841,12 @@
       </c>
       <c r="C102" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -2895,14 +2883,10 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C104" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D104" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="C104" s="1" t="inlineStr"/>
+      <c r="D104" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RandomNormal(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -2917,14 +2901,10 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C105" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D105" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="C105" s="1" t="inlineStr"/>
+      <c r="D105" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RandomNormalLike(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -2939,14 +2919,10 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C106" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D106" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="C106" s="1" t="inlineStr"/>
+      <c r="D106" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RandomUniform(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -2961,14 +2937,10 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C107" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D107" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="C107" s="1" t="inlineStr"/>
+      <c r="D107" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RandomUniformLike(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -2985,12 +2957,12 @@
       </c>
       <c r="C108" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -3139,12 +3111,12 @@
       </c>
       <c r="C115" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -3249,12 +3221,12 @@
       </c>
       <c r="C120" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -3313,14 +3285,10 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C123" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D123" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="C123" s="1" t="inlineStr"/>
+      <c r="D123" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RoiAlign(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -3337,7 +3305,7 @@
       </c>
       <c r="C124" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr">
@@ -3359,7 +3327,7 @@
       </c>
       <c r="C125" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D125" s="2" t="inlineStr">
@@ -3425,7 +3393,7 @@
       </c>
       <c r="C128" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D128" s="2" t="inlineStr">
@@ -3447,7 +3415,7 @@
       </c>
       <c r="C129" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D129" s="2" t="inlineStr">
@@ -3491,7 +3459,7 @@
       </c>
       <c r="C131" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr">
@@ -3513,7 +3481,7 @@
       </c>
       <c r="C132" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr">
@@ -3535,7 +3503,7 @@
       </c>
       <c r="C133" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D133" s="2" t="inlineStr">
@@ -3559,7 +3527,7 @@
       <c r="D134" s="3" t="inlineStr">
         <is>
           <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. In Node, ("", Loop, "", -1) : ("_inlfunc_SequenceMap_SequenceMap_input_sequence_seqlen": tensor(int64),"_inlfunc_SequenceMap_SequenceMap_input_sequence_cond": tensor(bool),"_inlfunc_SequenceMap_SequenceMap_out_sequence_0_seqempty": seq(tensor(float)),) -&gt; ("output_seq": seq(tensor(float)),) , Error No opset import for domain 'com.intel.ai'
-==&gt; Context: Bad node spec for node. Name: _inlfunc_SequenceMap_OpenVINOExecutionProvider_OpenVINO-EP-subgraph_61_0 OpType: OpenVINO-EP-subgraph_61</t>
+==&gt; Context: Bad node spec for node. Name: _inlfunc_SequenceMap_OpenVINOExecutionProvider_OpenVINO-EP-subgraph_120_0 OpType: OpenVINO-EP-subgraph_120</t>
         </is>
       </c>
     </row>
@@ -3594,7 +3562,7 @@
       </c>
       <c r="C136" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
@@ -3616,12 +3584,12 @@
       </c>
       <c r="C137" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -3638,12 +3606,12 @@
       </c>
       <c r="C138" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider,OpenVINOExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
@@ -3682,12 +3650,12 @@
       </c>
       <c r="C140" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3672,7 @@
       </c>
       <c r="C141" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr">
@@ -3880,12 +3848,12 @@
       </c>
       <c r="C149" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -3902,12 +3870,12 @@
       </c>
       <c r="C150" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -3946,12 +3914,12 @@
       </c>
       <c r="C152" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -3968,7 +3936,7 @@
       </c>
       <c r="C153" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D153" s="2" t="inlineStr">
@@ -3990,7 +3958,7 @@
       </c>
       <c r="C154" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D154" s="2" t="inlineStr">
@@ -4068,7 +4036,7 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.AttnLSTM</t>
+          <t>com.microsoft.BeamSearch</t>
         </is>
       </c>
       <c r="B158" s="1" t="inlineStr">
@@ -4076,17 +4044,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C158" s="1" t="inlineStr"/>
-      <c r="D158" s="3" t="inlineStr">
-        <is>
-          <t>FAIL (skipped: known crash)</t>
+      <c r="C158" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BeamSearch</t>
+          <t>com.microsoft.BiasAdd</t>
         </is>
       </c>
       <c r="B159" s="1" t="inlineStr">
@@ -4094,21 +4066,17 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C159" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D159" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C159" s="1" t="inlineStr"/>
+      <c r="D159" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BiasAdd(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BiasAdd</t>
+          <t>com.microsoft.BiasDropout</t>
         </is>
       </c>
       <c r="B160" s="1" t="inlineStr">
@@ -4119,14 +4087,14 @@
       <c r="C160" s="1" t="inlineStr"/>
       <c r="D160" s="3" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BiasAdd(1) node with name ''</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BiasDropout(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BiasDropout</t>
+          <t>com.microsoft.BiasGelu</t>
         </is>
       </c>
       <c r="B161" s="1" t="inlineStr">
@@ -4134,17 +4102,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C161" s="1" t="inlineStr"/>
-      <c r="D161" s="3" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BiasDropout(1) node with name ''</t>
+      <c r="C161" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BiasGelu</t>
+          <t>com.microsoft.BiasSoftmax</t>
         </is>
       </c>
       <c r="B162" s="1" t="inlineStr">
@@ -4152,21 +4124,17 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C162" s="1" t="inlineStr">
-        <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D162" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+      <c r="C162" s="1" t="inlineStr"/>
+      <c r="D162" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BiasSoftmax(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BiasSoftmax</t>
+          <t>com.microsoft.BiasSplitGelu</t>
         </is>
       </c>
       <c r="B163" s="1" t="inlineStr">
@@ -4177,14 +4145,14 @@
       <c r="C163" s="1" t="inlineStr"/>
       <c r="D163" s="3" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BiasSoftmax(1) node with name ''</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BiasSplitGelu(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BiasSplitGelu</t>
+          <t>com.microsoft.BifurcationDetector</t>
         </is>
       </c>
       <c r="B164" s="1" t="inlineStr">
@@ -4192,17 +4160,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C164" s="1" t="inlineStr"/>
-      <c r="D164" s="3" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BiasSplitGelu(1) node with name ''</t>
+      <c r="C164" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BifurcationDetector</t>
+          <t>com.microsoft.BitmaskBiasDropout</t>
         </is>
       </c>
       <c r="B165" s="1" t="inlineStr">
@@ -4210,21 +4182,17 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C165" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D165" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C165" s="1" t="inlineStr"/>
+      <c r="D165" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BitmaskBiasDropout(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BitmaskBiasDropout</t>
+          <t>com.microsoft.BitmaskDropout</t>
         </is>
       </c>
       <c r="B166" s="1" t="inlineStr">
@@ -4235,14 +4203,14 @@
       <c r="C166" s="1" t="inlineStr"/>
       <c r="D166" s="3" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BitmaskBiasDropout(1) node with name ''</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BitmaskDropout(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BitmaskDropout</t>
+          <t>com.microsoft.CDist</t>
         </is>
       </c>
       <c r="B167" s="1" t="inlineStr">
@@ -4250,17 +4218,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C167" s="1" t="inlineStr"/>
-      <c r="D167" s="3" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BitmaskDropout(1) node with name ''</t>
+      <c r="C167" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.CDist</t>
+          <t>com.microsoft.ComplexMul</t>
         </is>
       </c>
       <c r="B168" s="1" t="inlineStr">
@@ -4268,21 +4240,17 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C168" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D168" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C168" s="1" t="inlineStr"/>
+      <c r="D168" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ComplexMul(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.ComplexMul</t>
+          <t>com.microsoft.ComplexMulConj</t>
         </is>
       </c>
       <c r="B169" s="1" t="inlineStr">
@@ -4293,14 +4261,14 @@
       <c r="C169" s="1" t="inlineStr"/>
       <c r="D169" s="3" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ComplexMul(1) node with name ''</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ComplexMulConj(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.ComplexMulConj</t>
+          <t>com.microsoft.ConvTransposeWithDynamicPads</t>
         </is>
       </c>
       <c r="B170" s="1" t="inlineStr">
@@ -4308,17 +4276,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C170" s="1" t="inlineStr"/>
-      <c r="D170" s="3" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ComplexMulConj(1) node with name ''</t>
+      <c r="C170" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.ConvTransposeWithDynamicPads</t>
+          <t>com.microsoft.CropAndResize</t>
         </is>
       </c>
       <c r="B171" s="1" t="inlineStr">
@@ -4328,19 +4300,19 @@
       </c>
       <c r="C171" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.CropAndResize</t>
+          <t>com.microsoft.DecoderAttention</t>
         </is>
       </c>
       <c r="B172" s="1" t="inlineStr">
@@ -4348,21 +4320,17 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C172" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D172" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C172" s="1" t="inlineStr"/>
+      <c r="D172" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DecoderAttention(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.CropAndResize</t>
+          <t>com.microsoft.DecoderMaskedMultiHeadAttention</t>
         </is>
       </c>
       <c r="B173" s="1" t="inlineStr">
@@ -4372,19 +4340,19 @@
       </c>
       <c r="C173" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DecoderAttention</t>
+          <t>com.microsoft.DecoderMaskedSelfAttention</t>
         </is>
       </c>
       <c r="B174" s="1" t="inlineStr">
@@ -4395,14 +4363,14 @@
       <c r="C174" s="1" t="inlineStr"/>
       <c r="D174" s="3" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DecoderAttention(1) node with name ''</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. In Node, ("", com.microsoft.DecoderMaskedSelfAttention, "", -1) : ("X": tensor(float),) -&gt; ("Y": tensor(float),) , Error No Op registered for com.microsoft.DecoderMaskedSelfAttention with domain_version of 22</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DecoderMaskedMultiHeadAttention</t>
+          <t>com.microsoft.DequantizeBFP</t>
         </is>
       </c>
       <c r="B175" s="1" t="inlineStr">
@@ -4410,21 +4378,17 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C175" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D175" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C175" s="1" t="inlineStr"/>
+      <c r="D175" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DequantizeBFP(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DecoderMaskedSelfAttention</t>
+          <t>com.microsoft.DequantizeLinear</t>
         </is>
       </c>
       <c r="B176" s="1" t="inlineStr">
@@ -4432,17 +4396,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C176" s="1" t="inlineStr"/>
-      <c r="D176" s="3" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. In Node, ("", com.microsoft.DecoderMaskedSelfAttention, "", -1) : ("X": tensor(float),) -&gt; ("Y": tensor(float),) , Error No Op registered for com.microsoft.DecoderMaskedSelfAttention with domain_version of 22</t>
+      <c r="C176" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DequantizeBFP</t>
+          <t>com.microsoft.DequantizeWithOrder</t>
         </is>
       </c>
       <c r="B177" s="1" t="inlineStr">
@@ -4453,14 +4421,14 @@
       <c r="C177" s="1" t="inlineStr"/>
       <c r="D177" s="3" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DequantizeBFP(1) node with name ''</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DequantizeWithOrder(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DequantizeLinear</t>
+          <t>com.microsoft.DynamicQuantizeLSTM</t>
         </is>
       </c>
       <c r="B178" s="1" t="inlineStr">
@@ -4470,19 +4438,19 @@
       </c>
       <c r="C178" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DequantizeWithOrder</t>
+          <t>com.microsoft.DynamicQuantizeMatMul</t>
         </is>
       </c>
       <c r="B179" s="1" t="inlineStr">
@@ -4490,17 +4458,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C179" s="1" t="inlineStr"/>
-      <c r="D179" s="3" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DequantizeWithOrder(1) node with name ''</t>
+      <c r="C179" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DynamicQuantizeLSTM</t>
+          <t>com.microsoft.DynamicTimeWarping</t>
         </is>
       </c>
       <c r="B180" s="1" t="inlineStr">
@@ -4510,19 +4482,19 @@
       </c>
       <c r="C180" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DynamicQuantizeMatMul</t>
+          <t>com.microsoft.EmbedLayerNormalization</t>
         </is>
       </c>
       <c r="B181" s="1" t="inlineStr">
@@ -4530,54 +4502,10 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C181" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D181" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.DynamicTimeWarping</t>
-        </is>
-      </c>
-      <c r="B182" s="1" t="inlineStr">
-        <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C182" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D182" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.EmbedLayerNormalization</t>
-        </is>
-      </c>
-      <c r="B183" s="1" t="inlineStr">
-        <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C183" s="1" t="inlineStr"/>
-      <c r="D183" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FAIL session creation: [ONNXRuntimeError] : 6 : RUNTIME_EXCEPTION : Exception during initialization: C:\Users\Administrator\Documents\jatin\python_wheels_latest_122222222\onnxruntime\onnxruntime\core\providers\openvino\backend_manager.cc:188 __cdecl onnxruntime::openvino_ep::BackendManager::BackendManager(struct onnxruntime::openvino_ep::SessionContext &amp;,class onnxruntime::openvino_ep::SharedContext &amp;,const struct onnxruntime::Node &amp;,const class onnxruntime::GraphViewer &amp;,const struct onnxruntime::logging::Logger &amp;,class onnxruntime::openvino_ep::EPCtxHandler &amp;) C:\Users\Administrator\Documents\jatin\python_wheels_latest_122222222\onnxruntime\onnxruntime\core\providers\openvino\ov_interface.cc:117 class onnxruntime::openvino_ep::OVExeNetwork __cdecl onnxruntime::openvino_ep::OVCore::CompileModel(const class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; &amp;,class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; &amp;,class std::map&lt;class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;,class ov::Any,struct std::less&lt;class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; &gt;,class std::allocator&lt;struct std::pair&lt;class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; const ,class ov::Any&gt; &gt; &gt; &amp;,const class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; &amp;) [OpenVINO-EP]  Exception while Loading Network for graph: OpenVINOExecutionProvider_OpenVINO-EP-subgraph_73_0Exception from src\inference\src\cpp\core.cpp:147:
+      <c r="C181" s="1" t="inlineStr"/>
+      <c r="D181" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FAIL session creation: [ONNXRuntimeError] : 6 : RUNTIME_EXCEPTION : Exception during initialization: C:\Users\Administrator\Documents\jatin\python_wheels_latest_122222222\onnxruntime\onnxruntime\core\providers\openvino\backend_manager.cc:188 __cdecl onnxruntime::openvino_ep::BackendManager::BackendManager(struct onnxruntime::openvino_ep::SessionContext &amp;,class onnxruntime::openvino_ep::SharedContext &amp;,const struct onnxruntime::Node &amp;,const class onnxruntime::GraphViewer &amp;,const struct onnxruntime::logging::Logger &amp;,class onnxruntime::openvino_ep::EPCtxHandler &amp;) C:\Users\Administrator\Documents\jatin\python_wheels_latest_122222222\onnxruntime\onnxruntime\core\providers\openvino\ov_interface.cc:117 class onnxruntime::openvino_ep::OVExeNetwork __cdecl onnxruntime::openvino_ep::OVCore::CompileModel(const class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; &amp;,class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; &amp;,class std::map&lt;class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;,class ov::Any,struct std::less&lt;class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; &gt;,class std::allocator&lt;struct std::pair&lt;class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; const ,class ov::Any&gt; &gt; &gt; &amp;,const class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; &amp;) [OpenVINO-EP]  Exception while Loading Network for graph: OpenVINOExecutionProvider_OpenVINO-EP-subgraph_154_0Exception from src\inference\src\cpp\core.cpp:147:
 Check 'onnx_node.get_outputs_size() &lt;= outputs_size' failed at src\frontends\onnx\frontend\src\core\graph.cpp:399:
 FrontEnd API failed with GeneralFailure:
 Expected output number of EmbedLayerNormalization node is 3 while the implementation provides 2 outputs
@@ -4585,10 +4513,54 @@
         </is>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.ExpandDims</t>
+        </is>
+      </c>
+      <c r="B182" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C182" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.FastGelu</t>
+        </is>
+      </c>
+      <c r="B183" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C183" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
+        </is>
+      </c>
+    </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.ExpandDims</t>
+          <t>com.microsoft.FusedConv</t>
         </is>
       </c>
       <c r="B184" s="1" t="inlineStr">
@@ -4598,19 +4570,19 @@
       </c>
       <c r="C184" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.FastGelu</t>
+          <t>com.microsoft.FusedGemm</t>
         </is>
       </c>
       <c r="B185" s="1" t="inlineStr">
@@ -4620,19 +4592,19 @@
       </c>
       <c r="C185" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D185" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.FusedConv</t>
+          <t>com.microsoft.FusedMatMul</t>
         </is>
       </c>
       <c r="B186" s="1" t="inlineStr">
@@ -4654,7 +4626,7 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.FusedGemm</t>
+          <t>com.microsoft.FusedMatMulActivation</t>
         </is>
       </c>
       <c r="B187" s="1" t="inlineStr">
@@ -4662,21 +4634,17 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C187" s="1" t="inlineStr">
-        <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D187" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+      <c r="C187" s="1" t="inlineStr"/>
+      <c r="D187" s="5" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.FusedMatMul</t>
+          <t>com.microsoft.GatedRelativePositionBias</t>
         </is>
       </c>
       <c r="B188" s="1" t="inlineStr">
@@ -4684,21 +4652,17 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C188" s="1" t="inlineStr">
-        <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D188" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+      <c r="C188" s="1" t="inlineStr"/>
+      <c r="D188" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GatedRelativePositionBias(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.FusedMatMulActivation</t>
+          <t>com.microsoft.GatherBlockQuantized</t>
         </is>
       </c>
       <c r="B189" s="1" t="inlineStr">
@@ -4716,7 +4680,7 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GatedRelativePositionBias</t>
+          <t>com.microsoft.GatherND</t>
         </is>
       </c>
       <c r="B190" s="1" t="inlineStr">
@@ -4724,17 +4688,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C190" s="1" t="inlineStr"/>
-      <c r="D190" s="3" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GatedRelativePositionBias(1) node with name ''</t>
+      <c r="C190" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GatherBlockQuantized</t>
+          <t>com.microsoft.Gelu</t>
         </is>
       </c>
       <c r="B191" s="1" t="inlineStr">
@@ -4742,17 +4710,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C191" s="1" t="inlineStr"/>
-      <c r="D191" s="5" t="inlineStr">
-        <is>
-          <t>NOT TESTED (model unavailable)</t>
+      <c r="C191" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D191" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GatherND</t>
+          <t>com.microsoft.GemmFastGelu</t>
         </is>
       </c>
       <c r="B192" s="1" t="inlineStr">
@@ -4760,21 +4732,17 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C192" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D192" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C192" s="1" t="inlineStr"/>
+      <c r="D192" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GemmFastGelu(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Gelu</t>
+          <t>com.microsoft.GemmFloat8</t>
         </is>
       </c>
       <c r="B193" s="1" t="inlineStr">
@@ -4782,21 +4750,17 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C193" s="1" t="inlineStr">
-        <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D193" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+      <c r="C193" s="1" t="inlineStr"/>
+      <c r="D193" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GemmFloat8(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GemmFastGelu</t>
+          <t>com.microsoft.GemmaRotaryEmbedding</t>
         </is>
       </c>
       <c r="B194" s="1" t="inlineStr">
@@ -4807,14 +4771,14 @@
       <c r="C194" s="1" t="inlineStr"/>
       <c r="D194" s="3" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GemmFastGelu(1) node with name ''</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. Type Error: Type 'tensor(float)' of input parameter (InsertedPrecisionFreeCast_q) of operator (GemmaRotaryEmbedding) in node () is invalid.</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GemmFloat8</t>
+          <t>com.microsoft.GreedySearch</t>
         </is>
       </c>
       <c r="B195" s="1" t="inlineStr">
@@ -4823,16 +4787,16 @@
         </is>
       </c>
       <c r="C195" s="1" t="inlineStr"/>
-      <c r="D195" s="3" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GemmFloat8(1) node with name ''</t>
+      <c r="D195" s="5" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GemmaRotaryEmbedding</t>
+          <t>com.microsoft.GridSample</t>
         </is>
       </c>
       <c r="B196" s="1" t="inlineStr">
@@ -4840,17 +4804,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C196" s="1" t="inlineStr"/>
-      <c r="D196" s="3" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. Type Error: Type 'tensor(float)' of input parameter (InsertedPrecisionFreeCast_q) of operator (GemmaRotaryEmbedding) in node () is invalid.</t>
+      <c r="C196" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GreedySearch</t>
+          <t>com.microsoft.GroupNorm</t>
         </is>
       </c>
       <c r="B197" s="1" t="inlineStr">
@@ -4859,16 +4827,16 @@
         </is>
       </c>
       <c r="C197" s="1" t="inlineStr"/>
-      <c r="D197" s="5" t="inlineStr">
-        <is>
-          <t>NOT TESTED (model unavailable)</t>
+      <c r="D197" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GroupNorm(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GridSample</t>
+          <t>com.microsoft.GroupQueryAttention</t>
         </is>
       </c>
       <c r="B198" s="1" t="inlineStr">
@@ -4878,19 +4846,19 @@
       </c>
       <c r="C198" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GroupNorm</t>
+          <t>com.microsoft.Inverse</t>
         </is>
       </c>
       <c r="B199" s="1" t="inlineStr">
@@ -4898,17 +4866,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C199" s="1" t="inlineStr"/>
-      <c r="D199" s="3" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GroupNorm(1) node with name ''</t>
+      <c r="C199" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GroupQueryAttention</t>
+          <t>com.microsoft.Irfft</t>
         </is>
       </c>
       <c r="B200" s="1" t="inlineStr">
@@ -4916,21 +4888,17 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C200" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D200" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C200" s="1" t="inlineStr"/>
+      <c r="D200" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Irfft(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Inverse</t>
+          <t>com.microsoft.LongformerAttention</t>
         </is>
       </c>
       <c r="B201" s="1" t="inlineStr">
@@ -4938,21 +4906,17 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C201" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D201" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C201" s="1" t="inlineStr"/>
+      <c r="D201" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for LongformerAttention(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Irfft</t>
+          <t>com.microsoft.MatMulBnb4</t>
         </is>
       </c>
       <c r="B202" s="1" t="inlineStr">
@@ -4960,17 +4924,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C202" s="1" t="inlineStr"/>
-      <c r="D202" s="3" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Irfft(1) node with name ''</t>
+      <c r="C202" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.LongformerAttention</t>
+          <t>com.microsoft.MatMulFpQ4</t>
         </is>
       </c>
       <c r="B203" s="1" t="inlineStr">
@@ -4981,14 +4949,15 @@
       <c r="C203" s="1" t="inlineStr"/>
       <c r="D203" s="3" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for LongformerAttention(1) node with name ''</t>
+          <t xml:space="preserve">FAIL run: [ONNXRuntimeError] : 6 : RUNTIME_EXCEPTION : Non-zero status code returned while running MatMulFpQ4 node. Name:'' Status Message: C:\Users\Administrator\Documents\jatin\python_wheels_latest_122222222\onnxruntime\onnxruntime\contrib_ops\cpu\matmul_fpq4.cc:55 onnxruntime::contrib::MatMulFpQ4::Compute buf_size &gt; 0 was false. Operator MatMulFpQ4 not yet supported on this hardware platform.
+</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MatMulBnb4</t>
+          <t>com.microsoft.MatMulInteger16</t>
         </is>
       </c>
       <c r="B204" s="1" t="inlineStr">
@@ -4998,19 +4967,19 @@
       </c>
       <c r="C204" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D204" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MatMulFpQ4</t>
+          <t>com.microsoft.MatMulIntegerToFloat</t>
         </is>
       </c>
       <c r="B205" s="1" t="inlineStr">
@@ -5018,18 +4987,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C205" s="1" t="inlineStr"/>
-      <c r="D205" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FAIL run: [ONNXRuntimeError] : 6 : RUNTIME_EXCEPTION : Non-zero status code returned while running MatMulFpQ4 node. Name:'' Status Message: C:\Users\Administrator\Documents\jatin\python_wheels_latest_122222222\onnxruntime\onnxruntime\contrib_ops\cpu\matmul_fpq4.cc:55 onnxruntime::contrib::MatMulFpQ4::Compute buf_size &gt; 0 was false. Operator MatMulFpQ4 not yet supported on this hardware platform.
-</t>
+      <c r="C205" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MatMulInteger16</t>
+          <t>com.microsoft.MatMulNBits</t>
         </is>
       </c>
       <c r="B206" s="1" t="inlineStr">
@@ -5037,54 +5009,10 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C206" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D206" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.MatMulIntegerToFloat</t>
-        </is>
-      </c>
-      <c r="B207" s="1" t="inlineStr">
-        <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C207" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D207" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.MatMulNBits</t>
-        </is>
-      </c>
-      <c r="B208" s="1" t="inlineStr">
-        <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C208" s="1" t="inlineStr"/>
-      <c r="D208" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FAIL session creation: [ONNXRuntimeError] : 6 : RUNTIME_EXCEPTION : Exception during initialization: C:\Users\Administrator\Documents\jatin\python_wheels_latest_122222222\onnxruntime\onnxruntime\core\providers\openvino\backend_manager.cc:188 __cdecl onnxruntime::openvino_ep::BackendManager::BackendManager(struct onnxruntime::openvino_ep::SessionContext &amp;,class onnxruntime::openvino_ep::SharedContext &amp;,const struct onnxruntime::Node &amp;,const class onnxruntime::GraphViewer &amp;,const struct onnxruntime::logging::Logger &amp;,class onnxruntime::openvino_ep::EPCtxHandler &amp;) C:\Users\Administrator\Documents\jatin\python_wheels_latest_122222222\onnxruntime\onnxruntime\core\providers\openvino\ov_interface.cc:117 class onnxruntime::openvino_ep::OVExeNetwork __cdecl onnxruntime::openvino_ep::OVCore::CompileModel(const class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; &amp;,class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; &amp;,class std::map&lt;class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;,class ov::Any,struct std::less&lt;class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; &gt;,class std::allocator&lt;struct std::pair&lt;class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; const ,class ov::Any&gt; &gt; &gt; &amp;,const class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; &amp;) [OpenVINO-EP]  Exception while Loading Network for graph: OpenVINOExecutionProvider_OpenVINO-EP-subgraph_78_0Exception from src\inference\src\cpp\core.cpp:147:
+      <c r="C206" s="1" t="inlineStr"/>
+      <c r="D206" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FAIL session creation: [ONNXRuntimeError] : 6 : RUNTIME_EXCEPTION : Exception during initialization: C:\Users\Administrator\Documents\jatin\python_wheels_latest_122222222\onnxruntime\onnxruntime\core\providers\openvino\backend_manager.cc:188 __cdecl onnxruntime::openvino_ep::BackendManager::BackendManager(struct onnxruntime::openvino_ep::SessionContext &amp;,class onnxruntime::openvino_ep::SharedContext &amp;,const struct onnxruntime::Node &amp;,const class onnxruntime::GraphViewer &amp;,const struct onnxruntime::logging::Logger &amp;,class onnxruntime::openvino_ep::EPCtxHandler &amp;) C:\Users\Administrator\Documents\jatin\python_wheels_latest_122222222\onnxruntime\onnxruntime\core\providers\openvino\ov_interface.cc:117 class onnxruntime::openvino_ep::OVExeNetwork __cdecl onnxruntime::openvino_ep::OVCore::CompileModel(const class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; &amp;,class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; &amp;,class std::map&lt;class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;,class ov::Any,struct std::less&lt;class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; &gt;,class std::allocator&lt;struct std::pair&lt;class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; const ,class ov::Any&gt; &gt; &gt; &amp;,const class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; &amp;) [OpenVINO-EP]  Exception while Loading Network for graph: OpenVINOExecutionProvider_OpenVINO-EP-subgraph_168_0Exception from src\inference\src\cpp\core.cpp:147:
 Check 'false' failed at src\frontends\onnx\frontend\src\frontend.cpp:164:
 FrontEnd API failed with GeneralFailure:
 Errors during ONNX translation:
@@ -5095,10 +5023,50 @@
         </is>
       </c>
     </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MaxpoolWithMask</t>
+        </is>
+      </c>
+      <c r="B207" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C207" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MoE</t>
+        </is>
+      </c>
+      <c r="B208" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C208" s="1" t="inlineStr"/>
+      <c r="D208" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for MoE(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MaxpoolWithMask</t>
+          <t>com.microsoft.MulInteger</t>
         </is>
       </c>
       <c r="B209" s="1" t="inlineStr">
@@ -5106,21 +5074,17 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C209" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D209" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C209" s="1" t="inlineStr"/>
+      <c r="D209" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for MulInteger(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MoE</t>
+          <t>com.microsoft.MultiHeadAttention</t>
         </is>
       </c>
       <c r="B210" s="1" t="inlineStr">
@@ -5128,17 +5092,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C210" s="1" t="inlineStr"/>
-      <c r="D210" s="3" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for MoE(1) node with name ''</t>
+      <c r="C210" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MulInteger</t>
+          <t>com.microsoft.MurmurHash3</t>
         </is>
       </c>
       <c r="B211" s="1" t="inlineStr">
@@ -5146,17 +5114,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C211" s="1" t="inlineStr"/>
-      <c r="D211" s="3" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for MulInteger(1) node with name ''</t>
+      <c r="C211" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MultiHeadAttention</t>
+          <t>com.microsoft.NGramRepeatBlock</t>
         </is>
       </c>
       <c r="B212" s="1" t="inlineStr">
@@ -5166,19 +5138,19 @@
       </c>
       <c r="C212" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D212" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MurmurHash3</t>
+          <t>com.microsoft.NhwcConv</t>
         </is>
       </c>
       <c r="B213" s="1" t="inlineStr">
@@ -5186,21 +5158,17 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C213" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D213" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C213" s="1" t="inlineStr"/>
+      <c r="D213" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for NhwcConv(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.NGramRepeatBlock</t>
+          <t>com.microsoft.NhwcFusedConv</t>
         </is>
       </c>
       <c r="B214" s="1" t="inlineStr">
@@ -5208,21 +5176,17 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C214" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D214" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C214" s="1" t="inlineStr"/>
+      <c r="D214" s="5" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.NhwcConv</t>
+          <t>com.microsoft.NhwcMaxPool</t>
         </is>
       </c>
       <c r="B215" s="1" t="inlineStr">
@@ -5230,17 +5194,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C215" s="1" t="inlineStr"/>
-      <c r="D215" s="3" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for NhwcConv(1) node with name ''</t>
+      <c r="C215" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.NhwcFusedConv</t>
+          <t>com.microsoft.PackedAttention</t>
         </is>
       </c>
       <c r="B216" s="1" t="inlineStr">
@@ -5249,16 +5217,16 @@
         </is>
       </c>
       <c r="C216" s="1" t="inlineStr"/>
-      <c r="D216" s="5" t="inlineStr">
-        <is>
-          <t>NOT TESTED (model unavailable)</t>
+      <c r="D216" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for PackedAttention(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.NhwcMaxPool</t>
+          <t>com.microsoft.PackedMultiHeadAttention</t>
         </is>
       </c>
       <c r="B217" s="1" t="inlineStr">
@@ -5266,21 +5234,17 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C217" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D217" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C217" s="1" t="inlineStr"/>
+      <c r="D217" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for PackedMultiHeadAttention(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.PackedAttention</t>
+          <t>com.microsoft.Pad</t>
         </is>
       </c>
       <c r="B218" s="1" t="inlineStr">
@@ -5288,17 +5252,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C218" s="1" t="inlineStr"/>
-      <c r="D218" s="3" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for PackedAttention(1) node with name ''</t>
+      <c r="C218" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.PackedMultiHeadAttention</t>
+          <t>com.microsoft.QAttention</t>
         </is>
       </c>
       <c r="B219" s="1" t="inlineStr">
@@ -5306,17 +5274,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C219" s="1" t="inlineStr"/>
-      <c r="D219" s="3" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for PackedMultiHeadAttention(1) node with name ''</t>
+      <c r="C219" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Pad</t>
+          <t>com.microsoft.QGemm</t>
         </is>
       </c>
       <c r="B220" s="1" t="inlineStr">
@@ -5326,19 +5298,19 @@
       </c>
       <c r="C220" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D220" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QAttention</t>
+          <t>com.microsoft.QLinearAdd</t>
         </is>
       </c>
       <c r="B221" s="1" t="inlineStr">
@@ -5348,19 +5320,19 @@
       </c>
       <c r="C221" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D221" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QGemm</t>
+          <t>com.microsoft.QLinearAveragePool</t>
         </is>
       </c>
       <c r="B222" s="1" t="inlineStr">
@@ -5370,19 +5342,19 @@
       </c>
       <c r="C222" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D222" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearAdd</t>
+          <t>com.microsoft.QLinearConcat</t>
         </is>
       </c>
       <c r="B223" s="1" t="inlineStr">
@@ -5404,7 +5376,7 @@
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearAveragePool</t>
+          <t>com.microsoft.QLinearConv</t>
         </is>
       </c>
       <c r="B224" s="1" t="inlineStr">
@@ -5414,19 +5386,19 @@
       </c>
       <c r="C224" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D224" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearConcat</t>
+          <t>com.microsoft.QLinearGlobalAveragePool</t>
         </is>
       </c>
       <c r="B225" s="1" t="inlineStr">
@@ -5436,19 +5408,19 @@
       </c>
       <c r="C225" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D225" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearConv</t>
+          <t>com.microsoft.QLinearLeakyRelu</t>
         </is>
       </c>
       <c r="B226" s="1" t="inlineStr">
@@ -5458,19 +5430,19 @@
       </c>
       <c r="C226" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D226" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearGlobalAveragePool</t>
+          <t>com.microsoft.QLinearMul</t>
         </is>
       </c>
       <c r="B227" s="1" t="inlineStr">
@@ -5480,19 +5452,19 @@
       </c>
       <c r="C227" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D227" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearLeakyRelu</t>
+          <t>com.microsoft.QLinearReduceMean</t>
         </is>
       </c>
       <c r="B228" s="1" t="inlineStr">
@@ -5500,21 +5472,17 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C228" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D228" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C228" s="1" t="inlineStr"/>
+      <c r="D228" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QLinearReduceMean(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearMul</t>
+          <t>com.microsoft.QLinearSigmoid</t>
         </is>
       </c>
       <c r="B229" s="1" t="inlineStr">
@@ -5524,19 +5492,19 @@
       </c>
       <c r="C229" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D229" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearReduceMean</t>
+          <t>com.microsoft.QLinearSoftmax</t>
         </is>
       </c>
       <c r="B230" s="1" t="inlineStr">
@@ -5544,17 +5512,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C230" s="1" t="inlineStr"/>
-      <c r="D230" s="3" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QLinearReduceMean(1) node with name ''</t>
+      <c r="C230" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D230" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearSigmoid</t>
+          <t>com.microsoft.QLinearWhere</t>
         </is>
       </c>
       <c r="B231" s="1" t="inlineStr">
@@ -5564,19 +5536,19 @@
       </c>
       <c r="C231" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D231" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearSoftmax</t>
+          <t>com.microsoft.QMoE</t>
         </is>
       </c>
       <c r="B232" s="1" t="inlineStr">
@@ -5584,21 +5556,17 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C232" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D232" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C232" s="1" t="inlineStr"/>
+      <c r="D232" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. Type Error: Type 'tensor(float)' of input parameter (InsertedPrecisionFreeCast_input) of operator (QMoE) in node () is invalid.</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearWhere</t>
+          <t>com.microsoft.QOrderedAttention</t>
         </is>
       </c>
       <c r="B233" s="1" t="inlineStr">
@@ -5606,21 +5574,17 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C233" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D233" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C233" s="1" t="inlineStr"/>
+      <c r="D233" s="5" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QMoE</t>
+          <t>com.microsoft.QOrderedGelu</t>
         </is>
       </c>
       <c r="B234" s="1" t="inlineStr">
@@ -5631,14 +5595,14 @@
       <c r="C234" s="1" t="inlineStr"/>
       <c r="D234" s="3" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. Type Error: Type 'tensor(float)' of input parameter (InsertedPrecisionFreeCast_input) of operator (QMoE) in node () is invalid.</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QOrderedGelu(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QOrderedAttention</t>
+          <t>com.microsoft.QOrderedLayerNormalization</t>
         </is>
       </c>
       <c r="B235" s="1" t="inlineStr">
@@ -5647,16 +5611,16 @@
         </is>
       </c>
       <c r="C235" s="1" t="inlineStr"/>
-      <c r="D235" s="5" t="inlineStr">
-        <is>
-          <t>NOT TESTED (model unavailable)</t>
+      <c r="D235" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QOrderedLayerNormalization(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QOrderedGelu</t>
+          <t>com.microsoft.QOrderedLongformerAttention</t>
         </is>
       </c>
       <c r="B236" s="1" t="inlineStr">
@@ -5667,14 +5631,14 @@
       <c r="C236" s="1" t="inlineStr"/>
       <c r="D236" s="3" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QOrderedGelu(1) node with name ''</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. Type Error: Type 'tensor(float)' of input parameter (InsertedPrecisionFreeCast_mask) of operator (QOrderedLongformerAttention) in node () is invalid.</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QOrderedLayerNormalization</t>
+          <t>com.microsoft.QOrderedMatMul</t>
         </is>
       </c>
       <c r="B237" s="1" t="inlineStr">
@@ -5683,16 +5647,16 @@
         </is>
       </c>
       <c r="C237" s="1" t="inlineStr"/>
-      <c r="D237" s="3" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QOrderedLayerNormalization(1) node with name ''</t>
+      <c r="D237" s="5" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QOrderedLongformerAttention</t>
+          <t>com.microsoft.QuantizeBFP</t>
         </is>
       </c>
       <c r="B238" s="1" t="inlineStr">
@@ -5703,14 +5667,14 @@
       <c r="C238" s="1" t="inlineStr"/>
       <c r="D238" s="3" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. Type Error: Type 'tensor(float)' of input parameter (InsertedPrecisionFreeCast_mask) of operator (QOrderedLongformerAttention) in node () is invalid.</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QuantizeBFP(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QOrderedMatMul</t>
+          <t>com.microsoft.QuantizeLinear</t>
         </is>
       </c>
       <c r="B239" s="1" t="inlineStr">
@@ -5718,17 +5682,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C239" s="1" t="inlineStr"/>
-      <c r="D239" s="5" t="inlineStr">
-        <is>
-          <t>NOT TESTED (model unavailable)</t>
+      <c r="C239" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QuantizeBFP</t>
+          <t>com.microsoft.QuantizeWithOrder</t>
         </is>
       </c>
       <c r="B240" s="1" t="inlineStr">
@@ -5739,14 +5707,14 @@
       <c r="C240" s="1" t="inlineStr"/>
       <c r="D240" s="3" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QuantizeBFP(1) node with name ''</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QuantizeWithOrder(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QuantizeLinear</t>
+          <t>com.microsoft.QuickGelu</t>
         </is>
       </c>
       <c r="B241" s="1" t="inlineStr">
@@ -5756,19 +5724,19 @@
       </c>
       <c r="C241" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D241" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QuantizeWithOrder</t>
+          <t>com.microsoft.Range</t>
         </is>
       </c>
       <c r="B242" s="1" t="inlineStr">
@@ -5776,17 +5744,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C242" s="1" t="inlineStr"/>
-      <c r="D242" s="3" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QuantizeWithOrder(1) node with name ''</t>
+      <c r="C242" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D242" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QuickGelu</t>
+          <t>com.microsoft.ReduceSumInteger</t>
         </is>
       </c>
       <c r="B243" s="1" t="inlineStr">
@@ -5794,21 +5766,17 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C243" s="1" t="inlineStr">
-        <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D243" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+      <c r="C243" s="1" t="inlineStr"/>
+      <c r="D243" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ReduceSumInteger(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Range</t>
+          <t>com.microsoft.RelativePositionBias</t>
         </is>
       </c>
       <c r="B244" s="1" t="inlineStr">
@@ -5816,21 +5784,17 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C244" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D244" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C244" s="1" t="inlineStr"/>
+      <c r="D244" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RelativePositionBias(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.ReduceSumInteger</t>
+          <t>com.microsoft.RemovePadding</t>
         </is>
       </c>
       <c r="B245" s="1" t="inlineStr">
@@ -5841,14 +5805,14 @@
       <c r="C245" s="1" t="inlineStr"/>
       <c r="D245" s="3" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ReduceSumInteger(1) node with name ''</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RemovePadding(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.RelativePositionBias</t>
+          <t>com.microsoft.RestorePadding</t>
         </is>
       </c>
       <c r="B246" s="1" t="inlineStr">
@@ -5859,14 +5823,14 @@
       <c r="C246" s="1" t="inlineStr"/>
       <c r="D246" s="3" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RelativePositionBias(1) node with name ''</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RestorePadding(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.RemovePadding</t>
+          <t>com.microsoft.Rfft</t>
         </is>
       </c>
       <c r="B247" s="1" t="inlineStr">
@@ -5877,14 +5841,14 @@
       <c r="C247" s="1" t="inlineStr"/>
       <c r="D247" s="3" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RemovePadding(1) node with name ''</t>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Rfft(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.RestorePadding</t>
+          <t>com.microsoft.RotaryEmbedding</t>
         </is>
       </c>
       <c r="B248" s="1" t="inlineStr">
@@ -5892,17 +5856,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C248" s="1" t="inlineStr"/>
-      <c r="D248" s="3" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RestorePadding(1) node with name ''</t>
+      <c r="C248" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D248" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Rfft</t>
+          <t>com.microsoft.SampleOp</t>
         </is>
       </c>
       <c r="B249" s="1" t="inlineStr">
@@ -5910,17 +5878,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C249" s="1" t="inlineStr"/>
-      <c r="D249" s="3" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Rfft(1) node with name ''</t>
+      <c r="C249" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D249" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.RotaryEmbedding</t>
+          <t>com.microsoft.Sampling</t>
         </is>
       </c>
       <c r="B250" s="1" t="inlineStr">
@@ -5928,52 +5900,8 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C250" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D250" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.SampleOp</t>
-        </is>
-      </c>
-      <c r="B251" s="1" t="inlineStr">
-        <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C251" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D251" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.Sampling</t>
-        </is>
-      </c>
-      <c r="B252" s="1" t="inlineStr">
-        <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C252" s="1" t="inlineStr"/>
-      <c r="D252" s="3" t="inlineStr">
+      <c r="C250" s="1" t="inlineStr"/>
+      <c r="D250" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">FAIL session creation: [ONNXRuntimeError] : 6 : RUNTIME_EXCEPTION : Exception during initialization: C:\Users\Administrator\Documents\jatin\python_wheels_latest_122222222\onnxruntime\onnxruntime\core\providers\openvino\ov_interface.cc:79 class std::shared_ptr&lt;class ov::Model&gt; __cdecl onnxruntime::openvino_ep::OVCore::ReadModel(class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; &amp;&amp;,const class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt; &amp;) [OpenVINO-EP] [OpenVINO-EP] Exception while Reading network: Check 'onnx_node.get_outputs_size() &lt;= outputs_size' failed at src\frontends\onnx\frontend\src\core\graph.cpp:399:
 FrontEnd API failed with GeneralFailure:
@@ -5982,10 +5910,50 @@
         </is>
       </c>
     </row>
+    <row r="251">
+      <c r="A251" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.SkipGroupNorm</t>
+        </is>
+      </c>
+      <c r="B251" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C251" s="1" t="inlineStr"/>
+      <c r="D251" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for SkipGroupNorm(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.SkipLayerNormalization</t>
+        </is>
+      </c>
+      <c r="B252" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C252" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D252" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.SkipGroupNorm</t>
+          <t>com.microsoft.SkipSimplifiedLayerNormalization</t>
         </is>
       </c>
       <c r="B253" s="1" t="inlineStr">
@@ -5993,17 +5961,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C253" s="1" t="inlineStr"/>
-      <c r="D253" s="3" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for SkipGroupNorm(1) node with name ''</t>
+      <c r="C253" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D253" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.SkipLayerNormalization</t>
+          <t>com.microsoft.Snpe</t>
         </is>
       </c>
       <c r="B254" s="1" t="inlineStr">
@@ -6011,21 +5983,17 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C254" s="1" t="inlineStr">
-        <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D254" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+      <c r="C254" s="1" t="inlineStr"/>
+      <c r="D254" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Snpe(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.SkipSimplifiedLayerNormalization</t>
+          <t>com.microsoft.SparseAttention</t>
         </is>
       </c>
       <c r="B255" s="1" t="inlineStr">
@@ -6035,19 +6003,19 @@
       </c>
       <c r="C255" s="1" t="inlineStr">
         <is>
-          <t>OpenVINOExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D255" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Snpe</t>
+          <t>com.microsoft.SparseToDenseMatMul</t>
         </is>
       </c>
       <c r="B256" s="1" t="inlineStr">
@@ -6055,17 +6023,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C256" s="1" t="inlineStr"/>
-      <c r="D256" s="3" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Snpe(1) node with name ''</t>
+      <c r="C256" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D256" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.SparseAttention</t>
+          <t>com.microsoft.Tokenizer</t>
         </is>
       </c>
       <c r="B257" s="1" t="inlineStr">
@@ -6087,7 +6059,7 @@
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.SparseToDenseMatMul</t>
+          <t>com.microsoft.TorchEmbedding</t>
         </is>
       </c>
       <c r="B258" s="1" t="inlineStr">
@@ -6095,21 +6067,17 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C258" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D258" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C258" s="1" t="inlineStr"/>
+      <c r="D258" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for TorchEmbedding(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Tokenizer</t>
+          <t>com.microsoft.TransposeMatMul</t>
         </is>
       </c>
       <c r="B259" s="1" t="inlineStr">
@@ -6119,19 +6087,19 @@
       </c>
       <c r="C259" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D259" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.TorchEmbedding</t>
+          <t>com.microsoft.Trilu</t>
         </is>
       </c>
       <c r="B260" s="1" t="inlineStr">
@@ -6139,17 +6107,21 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C260" s="1" t="inlineStr"/>
-      <c r="D260" s="3" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for TorchEmbedding(1) node with name ''</t>
+      <c r="C260" s="1" t="inlineStr">
+        <is>
+          <t>OpenVINOExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D260" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.TransposeMatMul</t>
+          <t>com.microsoft.UnfoldTensor</t>
         </is>
       </c>
       <c r="B261" s="1" t="inlineStr">
@@ -6159,19 +6131,19 @@
       </c>
       <c r="C261" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
       <c r="D261" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Trilu</t>
+          <t>com.microsoft.Unique</t>
         </is>
       </c>
       <c r="B262" s="1" t="inlineStr">
@@ -6179,21 +6151,17 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C262" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D262" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C262" s="1" t="inlineStr"/>
+      <c r="D262" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Unique(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.UnfoldTensor</t>
+          <t>com.microsoft.WhisperBeamSearch</t>
         </is>
       </c>
       <c r="B263" s="1" t="inlineStr">
@@ -6201,68 +6169,10 @@
           <t>OpenVINOExecutionProvider</t>
         </is>
       </c>
-      <c r="C263" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D263" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.Unique</t>
-        </is>
-      </c>
-      <c r="B264" s="1" t="inlineStr">
-        <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C264" s="1" t="inlineStr"/>
-      <c r="D264" s="3" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Unique(1) node with name ''</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.WhisperBeamSearch</t>
-        </is>
-      </c>
-      <c r="B265" s="1" t="inlineStr">
-        <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C265" s="1" t="inlineStr"/>
-      <c r="D265" s="5" t="inlineStr">
+      <c r="C263" s="1" t="inlineStr"/>
+      <c r="D263" s="5" t="inlineStr">
         <is>
           <t>NOT TESTED (model unavailable)</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.WordConvEmbedding</t>
-        </is>
-      </c>
-      <c r="B266" s="1" t="inlineStr">
-        <is>
-          <t>OpenVINOExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C266" s="1" t="inlineStr"/>
-      <c r="D266" s="3" t="inlineStr">
-        <is>
-          <t>FAIL (skipped: known crash)</t>
         </is>
       </c>
     </row>
@@ -6315,10 +6225,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C2" t="n">
-        <v>77.7</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="3">
@@ -6383,7 +6293,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8">
@@ -6406,10 +6316,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C9" t="n">
-        <v>18.9</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="10">
@@ -6420,7 +6330,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-06-06 17:57:31</t>
+          <t>2025-07-11 10:43:23</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/Intel - OpenVINO™/report_OpenVINOExecutionProvider.xlsx
+++ b/Execution Providers Tester/Intel - OpenVINO™/report_OpenVINOExecutionProvider.xlsx
@@ -6330,7 +6330,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-07-11 10:43:23</t>
+          <t>2025-07-11 11:57:02</t>
         </is>
       </c>
     </row>
